--- a/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_001.xlsx
+++ b/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_001.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>25.11168210079282</v>
+        <v>14.28659723702208</v>
       </c>
       <c r="D2" t="n">
-        <v>23.92458888278133</v>
+        <v>11.53582217844316</v>
       </c>
       <c r="E2" t="n">
-        <v>25.45598438015749</v>
+        <v>11.32673457192579</v>
       </c>
       <c r="F2" t="n">
-        <v>30.68434811768251</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>18.92706829105125</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>27.16691788140198</v>
+        <v>82.11789469549466</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91844770865868</v>
+        <v>30.12498508225034</v>
       </c>
       <c r="J2" t="n">
-        <v>175.3727433196163</v>
+        <v>74.77903036291325</v>
       </c>
       <c r="K2" t="n">
-        <v>30.72589016456526</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>22.08821067730296</v>
+        <v>26.94542186717738</v>
       </c>
       <c r="M2" t="n">
-        <v>71.55680335913328</v>
+        <v>31.93078403212156</v>
       </c>
       <c r="N2" t="n">
-        <v>39.06310265700135</v>
+        <v>21.43122745094584</v>
       </c>
       <c r="O2" t="n">
-        <v>22.39994385523207</v>
+        <v>51.86152383568113</v>
       </c>
       <c r="P2" t="n">
-        <v>16.4667035744877</v>
+        <v>24.9815900177318</v>
       </c>
       <c r="Q2" t="n">
-        <v>41.94833208529566</v>
+        <v>42.49151356925415</v>
       </c>
       <c r="R2" t="n">
-        <v>55.92214120099939</v>
+        <v>53.81251802289984</v>
       </c>
       <c r="S2" t="n">
-        <v>34.96035656905149</v>
+        <v>54.36361069174544</v>
       </c>
       <c r="T2" t="n">
-        <v>19.52887601213939</v>
+        <v>64.72371951866083</v>
       </c>
       <c r="U2" t="n">
-        <v>60.43279735870169</v>
+        <v>84.06098757423892</v>
       </c>
       <c r="V2" t="n">
-        <v>38.21992008118647</v>
+        <v>148.7713607155447</v>
       </c>
       <c r="W2" t="n">
-        <v>51.20963373061804</v>
+        <v>88.19049944022134</v>
       </c>
       <c r="X2" t="n">
-        <v>52.21703459542429</v>
+        <v>104.2423082387864</v>
       </c>
       <c r="Y2" t="n">
-        <v>54.21341279286106</v>
+        <v>95.34566915726397</v>
       </c>
       <c r="Z2" t="n">
-        <v>69.09865779587481</v>
+        <v>44.03207290010322</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.79135068168272</v>
+        <v>57.43796069389308</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.1690639901029</v>
+        <v>68.95109577810506</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.9394744761058</v>
+        <v>106.5569661898958</v>
       </c>
       <c r="AD2" t="n">
-        <v>87.29220083765716</v>
+        <v>122.7421022285331</v>
       </c>
       <c r="AE2" t="n">
-        <v>86.86349490948385</v>
+        <v>129.8984485579238</v>
       </c>
       <c r="AF2" t="n">
-        <v>135.7029800713889</v>
+        <v>153.1998709979306</v>
       </c>
       <c r="AG2" t="n">
-        <v>29.74144880161307</v>
+        <v>162.63123819606</v>
       </c>
       <c r="AH2" t="n">
-        <v>124.8145481959571</v>
+        <v>67.39446446622635</v>
       </c>
       <c r="AI2" t="n">
-        <v>181.2399038119883</v>
+        <v>118.017428439864</v>
       </c>
       <c r="AJ2" t="n">
-        <v>53.56416608321415</v>
+        <v>90.8404660458264</v>
       </c>
       <c r="AK2" t="n">
-        <v>102.2866093765043</v>
+        <v>119.7495278576105</v>
       </c>
       <c r="AL2" t="n">
-        <v>116.1896220577505</v>
+        <v>119.7720040567957</v>
       </c>
       <c r="AM2" t="n">
-        <v>33.80635533057495</v>
+        <v>69.77324321010271</v>
       </c>
       <c r="AN2" t="n">
-        <v>53.5522445404582</v>
+        <v>22.74438575881576</v>
       </c>
       <c r="AO2" t="n">
-        <v>33.76456069081905</v>
+        <v>28.14789492142848</v>
       </c>
       <c r="AP2" t="n">
-        <v>17.24314448746593</v>
+        <v>16.00379855127594</v>
       </c>
       <c r="AQ2" t="n">
-        <v>20.21112147313335</v>
+        <v>20.31812480405888</v>
       </c>
       <c r="AR2" t="n">
-        <v>27.2427001080533</v>
+        <v>25.35350373892236</v>
       </c>
       <c r="AS2" t="n">
-        <v>21.52114396826281</v>
+        <v>35.27808248419735</v>
       </c>
       <c r="AT2" t="n">
-        <v>18.48125482739549</v>
+        <v>26.93226460852246</v>
       </c>
       <c r="AU2" t="n">
-        <v>13.99783528053125</v>
+        <v>12.62852667984086</v>
       </c>
       <c r="AV2" t="n">
-        <v>16.62529817178637</v>
+        <v>15.12836295964759</v>
       </c>
       <c r="AW2" t="n">
-        <v>32.26050515318543</v>
+        <v>14.15833869662992</v>
       </c>
       <c r="AX2" t="n">
-        <v>9.574271123646929</v>
+        <v>19.92924071741895</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>3.022145897509175</v>
+        <v>1.204848025123765</v>
       </c>
       <c r="D3" t="n">
-        <v>3.282184131378997</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>5.087615193435171</v>
+        <v>3.011439607682338</v>
       </c>
       <c r="F3" t="n">
-        <v>3.92225170656962</v>
+        <v>13.66841473087583</v>
       </c>
       <c r="G3" t="n">
-        <v>1.831479079779086</v>
+        <v>0.6864578971056894</v>
       </c>
       <c r="H3" t="n">
-        <v>3.586362926607411</v>
+        <v>5.342402522202459</v>
       </c>
       <c r="I3" t="n">
-        <v>3.938012516905474</v>
+        <v>1.716801550503515</v>
       </c>
       <c r="J3" t="n">
-        <v>5.111407672396338</v>
+        <v>0.9994485629585356</v>
       </c>
       <c r="K3" t="n">
-        <v>9.108928773159622</v>
+        <v>0.3964139446541373</v>
       </c>
       <c r="L3" t="n">
-        <v>2.07401959327282</v>
+        <v>1.787879201616372</v>
       </c>
       <c r="M3" t="n">
-        <v>10.06372480141852</v>
+        <v>5.064287443927335</v>
       </c>
       <c r="N3" t="n">
-        <v>1.371446650082352</v>
+        <v>10.28426015636697</v>
       </c>
       <c r="O3" t="n">
-        <v>4.188788561954903</v>
+        <v>7.063748671501817</v>
       </c>
       <c r="P3" t="n">
-        <v>2.522264979745824</v>
+        <v>2.197497734680137</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.639889671086198</v>
+        <v>6.229093020880898</v>
       </c>
       <c r="R3" t="n">
-        <v>8.530346310117194</v>
+        <v>4.767230126691388</v>
       </c>
       <c r="S3" t="n">
-        <v>9.286089023533188</v>
+        <v>2.990125820756099</v>
       </c>
       <c r="T3" t="n">
-        <v>4.630178397489766</v>
+        <v>3.135844074633243</v>
       </c>
       <c r="U3" t="n">
-        <v>2.741897200464801</v>
+        <v>1.429384729896711</v>
       </c>
       <c r="V3" t="n">
-        <v>4.701394531755485</v>
+        <v>2.731476275844249</v>
       </c>
       <c r="W3" t="n">
-        <v>3.540792071267883</v>
+        <v>4.306598528879615</v>
       </c>
       <c r="X3" t="n">
-        <v>3.944098106979966</v>
+        <v>0.1365696425005026</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.390758391360711</v>
+        <v>3.262474734024463</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.803761055816253</v>
+        <v>2.26984431695382</v>
       </c>
       <c r="AA3" t="n">
-        <v>3.724745735956246</v>
+        <v>6.437541436836351</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.660193762242526</v>
+        <v>2.899242051169926</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.137263173031704</v>
+        <v>3.791059896123237</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.862360389332292</v>
+        <v>5.983052612862561</v>
       </c>
       <c r="AE3" t="n">
-        <v>12.6927017826202</v>
+        <v>6.394578665074845</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.581345636978952</v>
+        <v>4.802270385024057</v>
       </c>
       <c r="AG3" t="n">
-        <v>4.311282084437023</v>
+        <v>3.194358317454181</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.058660571667914</v>
+        <v>4.379695298470133</v>
       </c>
       <c r="AI3" t="n">
-        <v>4.043453408959447</v>
+        <v>2.826282802606028</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2.665269467639693</v>
+        <v>7.50936262446423</v>
       </c>
       <c r="AK3" t="n">
-        <v>5.554253833633484</v>
+        <v>1.395407892380241</v>
       </c>
       <c r="AL3" t="n">
-        <v>3.66682081119952</v>
+        <v>2.649224664649636</v>
       </c>
       <c r="AM3" t="n">
-        <v>3.476465363191874</v>
+        <v>6.736549077908159</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.78566704142142</v>
+        <v>3.55177107872727</v>
       </c>
       <c r="AO3" t="n">
-        <v>3.227195154239691</v>
+        <v>3.418701882907192</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>2.555692880426801</v>
       </c>
       <c r="AQ3" t="n">
-        <v>6.527531274435352</v>
+        <v>1.936917243993311</v>
       </c>
       <c r="AR3" t="n">
-        <v>4.263576203498303</v>
+        <v>5.654178634988815</v>
       </c>
       <c r="AS3" t="n">
-        <v>4.183087174157661</v>
+        <v>2.524205852411148</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.9667143609638078</v>
+        <v>4.124648182614512</v>
       </c>
       <c r="AU3" t="n">
-        <v>2.159624272713829</v>
+        <v>3.764185737658605</v>
       </c>
       <c r="AV3" t="n">
-        <v>3.111098487639949</v>
+        <v>2.995318481160111</v>
       </c>
       <c r="AW3" t="n">
-        <v>0</v>
+        <v>2.982792036162755</v>
       </c>
       <c r="AX3" t="n">
-        <v>0</v>
+        <v>5.039986743122868</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>13.22127209365956</v>
+        <v>8.020273440742011</v>
       </c>
       <c r="D4" t="n">
-        <v>35.37677406953014</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>23.64723408163616</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>6.192387162894273</v>
+        <v>12.17380017445038</v>
       </c>
       <c r="G4" t="n">
-        <v>15.09777038640089</v>
+        <v>2.042419745497206</v>
       </c>
       <c r="H4" t="n">
-        <v>20.84177606601166</v>
+        <v>78.76328642143326</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>108.7559154986137</v>
+        <v>192.2665714653166</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>49.82077813159993</v>
       </c>
       <c r="L4" t="n">
-        <v>32.80804732455285</v>
+        <v>34.6627444699588</v>
       </c>
       <c r="M4" t="n">
-        <v>129.2594852337095</v>
+        <v>110.428192061955</v>
       </c>
       <c r="N4" t="n">
-        <v>104.5471705009044</v>
+        <v>77.91256816746619</v>
       </c>
       <c r="O4" t="n">
-        <v>92.25769277069693</v>
+        <v>48.10670396102392</v>
       </c>
       <c r="P4" t="n">
-        <v>51.0387858362345</v>
+        <v>48.53527403985795</v>
       </c>
       <c r="Q4" t="n">
-        <v>163.8176415737177</v>
+        <v>115.8742154498932</v>
       </c>
       <c r="R4" t="n">
-        <v>164.436976106903</v>
+        <v>23.47369234190179</v>
       </c>
       <c r="S4" t="n">
-        <v>48.27710439477266</v>
+        <v>43.27273217204357</v>
       </c>
       <c r="T4" t="n">
-        <v>44.77659841156976</v>
+        <v>68.1657080198172</v>
       </c>
       <c r="U4" t="n">
-        <v>54.52114497171232</v>
+        <v>98.27344725797013</v>
       </c>
       <c r="V4" t="n">
-        <v>43.67629035822149</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>45.72837431708083</v>
+        <v>40.03749162945525</v>
       </c>
       <c r="X4" t="n">
-        <v>94.56207615630284</v>
+        <v>91.28876734745644</v>
       </c>
       <c r="Y4" t="n">
-        <v>194.7576892006834</v>
+        <v>61.57711210080567</v>
       </c>
       <c r="Z4" t="n">
-        <v>50.70823338811636</v>
+        <v>94.18698597987101</v>
       </c>
       <c r="AA4" t="n">
-        <v>84.80132046783233</v>
+        <v>48.95527351566156</v>
       </c>
       <c r="AB4" t="n">
-        <v>90.31051965464017</v>
+        <v>86.585561445511</v>
       </c>
       <c r="AC4" t="n">
-        <v>44.32510867067263</v>
+        <v>37.91075887684565</v>
       </c>
       <c r="AD4" t="n">
-        <v>77.31505511602565</v>
+        <v>95.69614704898467</v>
       </c>
       <c r="AE4" t="n">
-        <v>41.51635864001397</v>
+        <v>98.77487534314234</v>
       </c>
       <c r="AF4" t="n">
-        <v>59.19849191094825</v>
+        <v>85.94283299434102</v>
       </c>
       <c r="AG4" t="n">
-        <v>98.63337982920766</v>
+        <v>95.0478215557555</v>
       </c>
       <c r="AH4" t="n">
-        <v>102.790846201243</v>
+        <v>28.05530836814631</v>
       </c>
       <c r="AI4" t="n">
-        <v>24.02304669548644</v>
+        <v>70.02840763399581</v>
       </c>
       <c r="AJ4" t="n">
-        <v>24.19617793755338</v>
+        <v>60.48240237530582</v>
       </c>
       <c r="AK4" t="n">
-        <v>67.57652619911123</v>
+        <v>14.96205079562554</v>
       </c>
       <c r="AL4" t="n">
-        <v>52.6092245695538</v>
+        <v>56.3203205043219</v>
       </c>
       <c r="AM4" t="n">
-        <v>43.09629696852945</v>
+        <v>24.96237207152284</v>
       </c>
       <c r="AN4" t="n">
-        <v>18.26794998751182</v>
+        <v>31.4393330788739</v>
       </c>
       <c r="AO4" t="n">
-        <v>18.48972421492862</v>
+        <v>11.41476953061295</v>
       </c>
       <c r="AP4" t="n">
-        <v>14.94491093204992</v>
+        <v>21.03188930309184</v>
       </c>
       <c r="AQ4" t="n">
-        <v>27.05861849020179</v>
+        <v>29.84169425462029</v>
       </c>
       <c r="AR4" t="n">
-        <v>12.55705954584055</v>
+        <v>13.01108342834219</v>
       </c>
       <c r="AS4" t="n">
-        <v>17.44221451113869</v>
+        <v>22.56085327258725</v>
       </c>
       <c r="AT4" t="n">
-        <v>4.694795977782553</v>
+        <v>9.061887949419562</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.841284596547851</v>
+        <v>10.38981682306454</v>
       </c>
       <c r="AV4" t="n">
-        <v>7.694118408270659</v>
+        <v>12.97884849530422</v>
       </c>
       <c r="AW4" t="n">
-        <v>10.14626937702383</v>
+        <v>29.25971898709185</v>
       </c>
       <c r="AX4" t="n">
-        <v>10.00627984967124</v>
+        <v>10.61560749518486</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>24.51067476399549</v>
+        <v>17.27299170430903</v>
       </c>
       <c r="D5" t="n">
-        <v>5.139704906253092</v>
+        <v>22.29910159514732</v>
       </c>
       <c r="E5" t="n">
-        <v>30.2564029099614</v>
+        <v>29.08686346174166</v>
       </c>
       <c r="F5" t="n">
-        <v>22.10354479189352</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>30.08276196792695</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>32.46550047400106</v>
+        <v>11.70929568585771</v>
       </c>
       <c r="I5" t="n">
-        <v>32.15947393214388</v>
+        <v>75.24671951773954</v>
       </c>
       <c r="J5" t="n">
-        <v>7.090867088198326</v>
+        <v>46.38579299925341</v>
       </c>
       <c r="K5" t="n">
-        <v>4.240195693563228</v>
+        <v>48.92569364358697</v>
       </c>
       <c r="L5" t="n">
-        <v>29.69275693693471</v>
+        <v>140.4359083981398</v>
       </c>
       <c r="M5" t="n">
-        <v>41.79469933849927</v>
+        <v>102.0618258106067</v>
       </c>
       <c r="N5" t="n">
-        <v>54.12803179727854</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>38.11497466369261</v>
+        <v>4.960442261260082</v>
       </c>
       <c r="P5" t="n">
-        <v>66.21616502535315</v>
+        <v>30.7363789443733</v>
       </c>
       <c r="Q5" t="n">
-        <v>20.41428995235981</v>
+        <v>35.10681071549612</v>
       </c>
       <c r="R5" t="n">
-        <v>47.98710293608991</v>
+        <v>7.046901289902527</v>
       </c>
       <c r="S5" t="n">
-        <v>148.2719032159371</v>
+        <v>21.93781968584376</v>
       </c>
       <c r="T5" t="n">
-        <v>37.18910482869964</v>
+        <v>13.62204465326275</v>
       </c>
       <c r="U5" t="n">
-        <v>24.95978501938447</v>
+        <v>29.53595100301222</v>
       </c>
       <c r="V5" t="n">
-        <v>35.93797988089126</v>
+        <v>87.35530331003133</v>
       </c>
       <c r="W5" t="n">
-        <v>31.47821489424455</v>
+        <v>38.39989534303131</v>
       </c>
       <c r="X5" t="n">
-        <v>38.77940179122454</v>
+        <v>66.42786268299976</v>
       </c>
       <c r="Y5" t="n">
-        <v>71.95744361167176</v>
+        <v>32.41204999921164</v>
       </c>
       <c r="Z5" t="n">
-        <v>60.26125645785493</v>
+        <v>44.45656444221601</v>
       </c>
       <c r="AA5" t="n">
-        <v>84.46529509985896</v>
+        <v>34.89841363198987</v>
       </c>
       <c r="AB5" t="n">
-        <v>10.98368380531293</v>
+        <v>34.1727266911075</v>
       </c>
       <c r="AC5" t="n">
-        <v>13.0539699625747</v>
+        <v>24.61544581900334</v>
       </c>
       <c r="AD5" t="n">
-        <v>162.1010191607921</v>
+        <v>21.69951257031411</v>
       </c>
       <c r="AE5" t="n">
-        <v>32.16278247358246</v>
+        <v>57.24154105435784</v>
       </c>
       <c r="AF5" t="n">
-        <v>13.78361293632697</v>
+        <v>18.21091681692932</v>
       </c>
       <c r="AG5" t="n">
-        <v>115.2631139910709</v>
+        <v>53.47413411906407</v>
       </c>
       <c r="AH5" t="n">
-        <v>22.89531055513728</v>
+        <v>13.14526954388337</v>
       </c>
       <c r="AI5" t="n">
-        <v>2.70206842062863</v>
+        <v>45.35255888205415</v>
       </c>
       <c r="AJ5" t="n">
-        <v>63.08002599924438</v>
+        <v>181.2377825785724</v>
       </c>
       <c r="AK5" t="n">
-        <v>7.916018580127767</v>
+        <v>23.66011514096411</v>
       </c>
       <c r="AL5" t="n">
-        <v>32.41923865473245</v>
+        <v>27.6833309496964</v>
       </c>
       <c r="AM5" t="n">
-        <v>34.66307451309599</v>
+        <v>7.242218273245038</v>
       </c>
       <c r="AN5" t="n">
-        <v>26.65476959511867</v>
+        <v>12.44673565598652</v>
       </c>
       <c r="AO5" t="n">
-        <v>25.40759931029295</v>
+        <v>25.1443389309994</v>
       </c>
       <c r="AP5" t="n">
-        <v>39.59712815638419</v>
+        <v>30.83738590576376</v>
       </c>
       <c r="AQ5" t="n">
-        <v>31.21985312136497</v>
+        <v>28.13368386016748</v>
       </c>
       <c r="AR5" t="n">
-        <v>20.25415756325385</v>
+        <v>29.44740435151604</v>
       </c>
       <c r="AS5" t="n">
-        <v>37.57028665027276</v>
+        <v>25.4001318096367</v>
       </c>
       <c r="AT5" t="n">
-        <v>28.22934422089898</v>
+        <v>11.26650485927427</v>
       </c>
       <c r="AU5" t="n">
-        <v>12.12701978218652</v>
+        <v>8.042066373184445</v>
       </c>
       <c r="AV5" t="n">
-        <v>23.54636906421769</v>
+        <v>38.65138468079896</v>
       </c>
       <c r="AW5" t="n">
-        <v>25.26518571936898</v>
+        <v>39.63718005691246</v>
       </c>
       <c r="AX5" t="n">
-        <v>5.513305526457818</v>
+        <v>30.91431132399881</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>3.621182786628731</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.295808790327602</v>
+        <v>7.943270934198207</v>
       </c>
       <c r="E6" t="n">
-        <v>36.19773704007518</v>
+        <v>3.053898374110611</v>
       </c>
       <c r="F6" t="n">
-        <v>2.185409642154589</v>
+        <v>7.789519879771095</v>
       </c>
       <c r="G6" t="n">
-        <v>7.820451749132061</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>5.862684284952923</v>
+        <v>12.45547163596482</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.67097323841121</v>
       </c>
       <c r="J6" t="n">
-        <v>6.332686352737507</v>
+        <v>40.4347450885289</v>
       </c>
       <c r="K6" t="n">
-        <v>12.50789222926592</v>
+        <v>20.41779414728343</v>
       </c>
       <c r="L6" t="n">
-        <v>12.90472620019911</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>12.36813761592124</v>
+        <v>107.0882744863454</v>
       </c>
       <c r="N6" t="n">
-        <v>48.78390292857902</v>
+        <v>41.23260148921732</v>
       </c>
       <c r="O6" t="n">
-        <v>34.47543883256296</v>
+        <v>24.04409078076146</v>
       </c>
       <c r="P6" t="n">
-        <v>14.97089477908561</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.15214157405002</v>
+        <v>96.51344215436772</v>
       </c>
       <c r="R6" t="n">
-        <v>49.313369919522</v>
+        <v>2.241823115778013</v>
       </c>
       <c r="S6" t="n">
-        <v>29.39707010690388</v>
+        <v>14.0150019940821</v>
       </c>
       <c r="T6" t="n">
-        <v>20.53059217201825</v>
+        <v>24.24032187618482</v>
       </c>
       <c r="U6" t="n">
-        <v>19.35742471214386</v>
+        <v>17.11462806345482</v>
       </c>
       <c r="V6" t="n">
-        <v>28.82432797299919</v>
+        <v>35.36873938327744</v>
       </c>
       <c r="W6" t="n">
-        <v>13.544603020683</v>
+        <v>24.35975174300067</v>
       </c>
       <c r="X6" t="n">
-        <v>45.11625344207732</v>
+        <v>11.84499824215345</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.51731850605377</v>
+        <v>12.42050011118331</v>
       </c>
       <c r="Z6" t="n">
-        <v>6.3272948713402</v>
+        <v>9.75631712353929</v>
       </c>
       <c r="AA6" t="n">
-        <v>13.12940289739414</v>
+        <v>21.73229445240114</v>
       </c>
       <c r="AB6" t="n">
-        <v>6.498206039471857</v>
+        <v>22.60602484743162</v>
       </c>
       <c r="AC6" t="n">
-        <v>14.5557683122396</v>
+        <v>18.23355877313001</v>
       </c>
       <c r="AD6" t="n">
-        <v>17.53772422721137</v>
+        <v>15.43499392016308</v>
       </c>
       <c r="AE6" t="n">
-        <v>30.87418512217469</v>
+        <v>9.224891324683608</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.343660467962115</v>
+        <v>12.69022770035959</v>
       </c>
       <c r="AG6" t="n">
-        <v>5.29659479232314</v>
+        <v>17.45981185220097</v>
       </c>
       <c r="AH6" t="n">
-        <v>8.083318074181022</v>
+        <v>12.90944382431336</v>
       </c>
       <c r="AI6" t="n">
-        <v>9.220184445518038</v>
+        <v>4.006078189463242</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.403857264635588</v>
+        <v>7.762708255770986</v>
       </c>
       <c r="AK6" t="n">
-        <v>11.03765617027897</v>
+        <v>22.93214961368216</v>
       </c>
       <c r="AL6" t="n">
-        <v>6.292890295531523</v>
+        <v>4.693471094054023</v>
       </c>
       <c r="AM6" t="n">
-        <v>4.670583733765153</v>
+        <v>5.908896351926204</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.160489941647687</v>
+        <v>0.3163564145257505</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.808741808456654</v>
+        <v>2.018406191430342</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.786529560818937</v>
+        <v>3.19957320278162</v>
       </c>
       <c r="AQ6" t="n">
-        <v>6.958719897755749</v>
+        <v>4.994729303842291</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.516763884422335</v>
+        <v>1.59773954045998</v>
       </c>
       <c r="AS6" t="n">
-        <v>3.544426091783074</v>
+        <v>3.548514967580925</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.3786589047961998</v>
+        <v>3.552893989184144</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.2386576681355707</v>
+        <v>0</v>
       </c>
       <c r="AV6" t="n">
-        <v>2.118791767172218</v>
+        <v>1.836479383266519</v>
       </c>
       <c r="AW6" t="n">
-        <v>0</v>
+        <v>3.07535495794497</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.399057962365832</v>
+        <v>6.145120522085241</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>8.497166508698822</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>7.055505688373831</v>
+        <v>8.48992917783465</v>
       </c>
       <c r="E7" t="n">
-        <v>12.92988812583527</v>
+        <v>73.49920206270403</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>15.39366193075949</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>41.26740273822769</v>
+        <v>8.293587793858679</v>
       </c>
       <c r="I7" t="n">
-        <v>61.13883744640278</v>
+        <v>15.63791149313955</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>23.87213985005639</v>
       </c>
       <c r="K7" t="n">
-        <v>28.07839383578079</v>
+        <v>51.18075743265064</v>
       </c>
       <c r="L7" t="n">
-        <v>52.74914639192404</v>
+        <v>30.68386116015449</v>
       </c>
       <c r="M7" t="n">
-        <v>63.51346635668163</v>
+        <v>48.69601144492412</v>
       </c>
       <c r="N7" t="n">
-        <v>78.31950716688114</v>
+        <v>100.0244093699216</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>121.5667162984885</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>8.641192320421283</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.0353999494552</v>
+        <v>38.70694191099573</v>
       </c>
       <c r="R7" t="n">
-        <v>39.94344306925513</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>49.88257777687585</v>
+        <v>23.25252631450272</v>
       </c>
       <c r="T7" t="n">
-        <v>61.47749177369049</v>
+        <v>0.3874787787248124</v>
       </c>
       <c r="U7" t="n">
-        <v>74.76430092750213</v>
+        <v>30.3313503257558</v>
       </c>
       <c r="V7" t="n">
-        <v>36.06579771161736</v>
+        <v>51.66276549048577</v>
       </c>
       <c r="W7" t="n">
-        <v>14.7427270727146</v>
+        <v>137.9878312892229</v>
       </c>
       <c r="X7" t="n">
-        <v>20.8398506676732</v>
+        <v>45.42917532543084</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.51473457235036</v>
+        <v>41.81128583944699</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.3047029704183</v>
+        <v>7.048622981983289</v>
       </c>
       <c r="AA7" t="n">
-        <v>7.699007565426654</v>
+        <v>9.200541931553456</v>
       </c>
       <c r="AB7" t="n">
-        <v>4.723463993077865</v>
+        <v>2.840603391714244</v>
       </c>
       <c r="AC7" t="n">
-        <v>12.8489603304464</v>
+        <v>3.55918062783198</v>
       </c>
       <c r="AD7" t="n">
-        <v>12.49375454727007</v>
+        <v>18.04408164706394</v>
       </c>
       <c r="AE7" t="n">
-        <v>2.521569141026731</v>
+        <v>3.662940964077174</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.269538743116069</v>
+        <v>9.844385529324887</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.507069108561506</v>
+        <v>15.61971042280572</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.102984025977195</v>
+        <v>4.1586280707799</v>
       </c>
       <c r="AI7" t="n">
-        <v>3.202226281523807</v>
+        <v>18.69202963541419</v>
       </c>
       <c r="AJ7" t="n">
-        <v>20.86467777961356</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.167144045633289</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>21.42781129974233</v>
+        <v>11.59369345392171</v>
       </c>
       <c r="AM7" t="n">
-        <v>69.0230543242577</v>
+        <v>3.063822554247686</v>
       </c>
       <c r="AN7" t="n">
-        <v>16.75530338787233</v>
+        <v>6.678005248521433</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.122785435161227</v>
+        <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>4.468704547538477</v>
+        <v>0.4978325861651454</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.536895143234338</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>10.39003611538776</v>
+        <v>13.82177761610739</v>
       </c>
       <c r="AS7" t="n">
-        <v>16.1802421258546</v>
+        <v>16.83289824766229</v>
       </c>
       <c r="AT7" t="n">
-        <v>4.307133203622943</v>
+        <v>3.182472431122761</v>
       </c>
       <c r="AU7" t="n">
-        <v>3.783056447328498</v>
+        <v>6.867641279910188</v>
       </c>
       <c r="AV7" t="n">
-        <v>14.33346451813145</v>
+        <v>9.557515404341871</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.181892652230055</v>
+        <v>11.80918479922016</v>
       </c>
       <c r="AX7" t="n">
-        <v>17.19192006598519</v>
+        <v>4.705499202318743</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>19.57963962939395</v>
+        <v>23.07548461827331</v>
       </c>
       <c r="D8" t="n">
-        <v>76.39512533100236</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>123.0307475503317</v>
+        <v>18.93504822150673</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81339056890418</v>
+        <v>24.37055056877458</v>
       </c>
       <c r="G8" t="n">
-        <v>19.81078945256691</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>62.90687946524496</v>
+        <v>14.20967044467995</v>
       </c>
       <c r="I8" t="n">
-        <v>32.39511139751311</v>
+        <v>146.4251470984505</v>
       </c>
       <c r="J8" t="n">
-        <v>56.04709097237382</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>26.76828643769727</v>
+        <v>92.73416584215886</v>
       </c>
       <c r="L8" t="n">
-        <v>22.35833332034199</v>
+        <v>31.22253329598875</v>
       </c>
       <c r="M8" t="n">
-        <v>26.30323759944297</v>
+        <v>56.12248113317574</v>
       </c>
       <c r="N8" t="n">
-        <v>165.7200531778177</v>
+        <v>71.17630328805562</v>
       </c>
       <c r="O8" t="n">
-        <v>75.85605852653349</v>
+        <v>47.35742956478988</v>
       </c>
       <c r="P8" t="n">
-        <v>201.3647784303041</v>
+        <v>35.13857002624442</v>
       </c>
       <c r="Q8" t="n">
-        <v>39.4847740218221</v>
+        <v>38.65788418329758</v>
       </c>
       <c r="R8" t="n">
-        <v>57.68388698630696</v>
+        <v>22.6962199317084</v>
       </c>
       <c r="S8" t="n">
-        <v>96.69400728866957</v>
+        <v>47.89268504738731</v>
       </c>
       <c r="T8" t="n">
-        <v>66.0808977980618</v>
+        <v>137.6780932393945</v>
       </c>
       <c r="U8" t="n">
-        <v>99.71691782703455</v>
+        <v>59.90455687610034</v>
       </c>
       <c r="V8" t="n">
-        <v>67.85787002803823</v>
+        <v>55.43464183354314</v>
       </c>
       <c r="W8" t="n">
-        <v>40.91138689828333</v>
+        <v>63.37748172623777</v>
       </c>
       <c r="X8" t="n">
-        <v>116.1972678489444</v>
+        <v>38.42608944487704</v>
       </c>
       <c r="Y8" t="n">
-        <v>49.54862894148178</v>
+        <v>77.44059692072149</v>
       </c>
       <c r="Z8" t="n">
-        <v>66.33230758507264</v>
+        <v>76.20041040071007</v>
       </c>
       <c r="AA8" t="n">
-        <v>72.66731576808135</v>
+        <v>111.5467946990094</v>
       </c>
       <c r="AB8" t="n">
-        <v>66.54299621205782</v>
+        <v>121.8955897218262</v>
       </c>
       <c r="AC8" t="n">
-        <v>77.51994426761144</v>
+        <v>144.748415996455</v>
       </c>
       <c r="AD8" t="n">
-        <v>85.50344044000052</v>
+        <v>79.27830293696751</v>
       </c>
       <c r="AE8" t="n">
-        <v>100.937577796674</v>
+        <v>150.8125812021685</v>
       </c>
       <c r="AF8" t="n">
-        <v>74.12721194961068</v>
+        <v>98.68974377100584</v>
       </c>
       <c r="AG8" t="n">
-        <v>112.9068674478687</v>
+        <v>134.2304738157254</v>
       </c>
       <c r="AH8" t="n">
-        <v>36.55467873825744</v>
+        <v>150.8768890516927</v>
       </c>
       <c r="AI8" t="n">
-        <v>99.86969873442331</v>
+        <v>44.75776015230918</v>
       </c>
       <c r="AJ8" t="n">
-        <v>156.55407110857</v>
+        <v>31.80509152374817</v>
       </c>
       <c r="AK8" t="n">
-        <v>30.49402770140547</v>
+        <v>62.77104523794864</v>
       </c>
       <c r="AL8" t="n">
-        <v>26.77761408195542</v>
+        <v>35.36651152466332</v>
       </c>
       <c r="AM8" t="n">
-        <v>42.36147245763972</v>
+        <v>102.9251898025035</v>
       </c>
       <c r="AN8" t="n">
-        <v>12.30317854519853</v>
+        <v>57.67516106294573</v>
       </c>
       <c r="AO8" t="n">
-        <v>45.66841251398596</v>
+        <v>19.88030976332649</v>
       </c>
       <c r="AP8" t="n">
-        <v>35.59168627973548</v>
+        <v>38.48538900797156</v>
       </c>
       <c r="AQ8" t="n">
-        <v>37.81012507955531</v>
+        <v>35.03770177738865</v>
       </c>
       <c r="AR8" t="n">
-        <v>19.37857598635595</v>
+        <v>12.46390571144372</v>
       </c>
       <c r="AS8" t="n">
-        <v>22.66685254478361</v>
+        <v>13.37762922348538</v>
       </c>
       <c r="AT8" t="n">
-        <v>18.24275495386333</v>
+        <v>23.8521938279295</v>
       </c>
       <c r="AU8" t="n">
-        <v>19.87542833378413</v>
+        <v>25.62190282014443</v>
       </c>
       <c r="AV8" t="n">
-        <v>12.70070224078977</v>
+        <v>37.77879136023471</v>
       </c>
       <c r="AW8" t="n">
-        <v>29.02003206209326</v>
+        <v>61.44916144113206</v>
       </c>
       <c r="AX8" t="n">
-        <v>20.51326333525434</v>
+        <v>12.5650478161337</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>2.967948977545795</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>2.557911594041732</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>3.481290722037115</v>
+        <v>1.99459059748465</v>
       </c>
       <c r="F9" t="n">
-        <v>4.397296643918036</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.32123577511589</v>
+        <v>4.425426362226095</v>
       </c>
       <c r="H9" t="n">
-        <v>2.06546134306943</v>
+        <v>2.228877835630943</v>
       </c>
       <c r="I9" t="n">
-        <v>1.474229548971556</v>
+        <v>0.6723770623179837</v>
       </c>
       <c r="J9" t="n">
-        <v>5.086468380371412</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>4.108711901499524</v>
+        <v>6.654693795320745</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9289820112805098</v>
+        <v>5.297799422123233</v>
       </c>
       <c r="M9" t="n">
-        <v>4.622471580629674</v>
+        <v>0.4822862116496517</v>
       </c>
       <c r="N9" t="n">
-        <v>8.326130357240576</v>
+        <v>4.555090075888151</v>
       </c>
       <c r="O9" t="n">
-        <v>11.21759404185886</v>
+        <v>0.7982693682722973</v>
       </c>
       <c r="P9" t="n">
-        <v>1.37328713977222</v>
+        <v>4.332926835606468</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.018308802674453</v>
+        <v>4.531158731174624</v>
       </c>
       <c r="R9" t="n">
-        <v>6.144023712485849</v>
+        <v>3.259996312920304</v>
       </c>
       <c r="S9" t="n">
-        <v>4.819938874785287</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>2.428933261507811</v>
+        <v>1.605914106806453</v>
       </c>
       <c r="U9" t="n">
-        <v>4.87611460550785</v>
+        <v>3.310673617932069</v>
       </c>
       <c r="V9" t="n">
-        <v>6.901250750817624</v>
+        <v>16.48729522381949</v>
       </c>
       <c r="W9" t="n">
-        <v>2.65213954491069</v>
+        <v>0.379503642120126</v>
       </c>
       <c r="X9" t="n">
-        <v>7.023327936316259</v>
+        <v>0.6661133709136504</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.895615982222415</v>
+        <v>1.828226994485799</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.475979679882432</v>
+        <v>9.726490290394469</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.779204913034919</v>
+        <v>4.522507018694648</v>
       </c>
       <c r="AB9" t="n">
-        <v>3.358476674992072</v>
+        <v>5.076740138054455</v>
       </c>
       <c r="AC9" t="n">
-        <v>5.862386026023725</v>
+        <v>4.109798111023619</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.028662944884124</v>
+        <v>9.086934123502894</v>
       </c>
       <c r="AE9" t="n">
-        <v>5.671427577260072</v>
+        <v>5.649373967141792</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.713790512049173</v>
+        <v>6.726577830379815</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.66432534400358</v>
+        <v>8.47031656675772</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.733423079223456</v>
+        <v>3.427822271486025</v>
       </c>
       <c r="AI9" t="n">
-        <v>4.866221835935065</v>
+        <v>1.128906903906185</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2.1278346437506</v>
+        <v>0.6086797831615386</v>
       </c>
       <c r="AK9" t="n">
-        <v>3.978341579412034</v>
+        <v>5.54381900541722</v>
       </c>
       <c r="AL9" t="n">
-        <v>6.034868971418996</v>
+        <v>4.960981836581204</v>
       </c>
       <c r="AM9" t="n">
-        <v>4.385872614029426</v>
+        <v>4.04277796616429</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.028211406745988</v>
+        <v>3.76883013889112</v>
       </c>
       <c r="AO9" t="n">
-        <v>4.238845794824881</v>
+        <v>4.430460158291916</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.701072606310872</v>
+        <v>2.183703256855846</v>
       </c>
       <c r="AQ9" t="n">
-        <v>4.479286067526544</v>
+        <v>5.107286117546737</v>
       </c>
       <c r="AR9" t="n">
-        <v>4.382167711567492</v>
+        <v>3.138958231605391</v>
       </c>
       <c r="AS9" t="n">
-        <v>4.68883310430386</v>
+        <v>3.780197440239118</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.622494048284127</v>
+        <v>2.694462320464906</v>
       </c>
       <c r="AU9" t="n">
-        <v>3.424960210359885</v>
+        <v>4.05299618450776</v>
       </c>
       <c r="AV9" t="n">
-        <v>2.884862353105017</v>
+        <v>3.773888930618044</v>
       </c>
       <c r="AW9" t="n">
-        <v>2.326515336342198</v>
+        <v>4.631921677268204</v>
       </c>
       <c r="AX9" t="n">
-        <v>3.581461700786062</v>
+        <v>4.552501911443626</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>13.89984694816113</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>14.99064981344259</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>10.48020050961369</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1736378569691333</v>
+        <v>23.43501727311387</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>19.77787764461923</v>
+        <v>26.30895300334319</v>
       </c>
       <c r="I10" t="n">
-        <v>38.4474686659438</v>
+        <v>18.92623374839451</v>
       </c>
       <c r="J10" t="n">
-        <v>59.33142854179048</v>
+        <v>31.51047609067537</v>
       </c>
       <c r="K10" t="n">
-        <v>3.849137676021758</v>
+        <v>106.4912973180224</v>
       </c>
       <c r="L10" t="n">
-        <v>89.22352962178849</v>
+        <v>25.96249770606894</v>
       </c>
       <c r="M10" t="n">
-        <v>327.1096991733716</v>
+        <v>20.21104265749454</v>
       </c>
       <c r="N10" t="n">
-        <v>47.35429763551016</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>81.42936429897871</v>
+        <v>132.5264386313654</v>
       </c>
       <c r="P10" t="n">
-        <v>38.44612620815449</v>
+        <v>6.662224080783485</v>
       </c>
       <c r="Q10" t="n">
-        <v>229.8316122048236</v>
+        <v>87.4748800892712</v>
       </c>
       <c r="R10" t="n">
-        <v>135.2010559971214</v>
+        <v>76.98928387082715</v>
       </c>
       <c r="S10" t="n">
-        <v>70.27315311837025</v>
+        <v>55.37907573220735</v>
       </c>
       <c r="T10" t="n">
-        <v>45.75469675860289</v>
+        <v>41.5199514398045</v>
       </c>
       <c r="U10" t="n">
-        <v>36.97147883224922</v>
+        <v>45.33001284192971</v>
       </c>
       <c r="V10" t="n">
-        <v>32.94744018537462</v>
+        <v>6.830552094240907</v>
       </c>
       <c r="W10" t="n">
-        <v>45.47545899966544</v>
+        <v>43.64852381121253</v>
       </c>
       <c r="X10" t="n">
-        <v>48.8783577499757</v>
+        <v>39.14857757971363</v>
       </c>
       <c r="Y10" t="n">
-        <v>46.89600899141999</v>
+        <v>59.95020844927346</v>
       </c>
       <c r="Z10" t="n">
-        <v>102.5592599356407</v>
+        <v>60.0709618091728</v>
       </c>
       <c r="AA10" t="n">
-        <v>48.82894114191402</v>
+        <v>73.66003273522344</v>
       </c>
       <c r="AB10" t="n">
-        <v>60.40416784378635</v>
+        <v>75.85803994947392</v>
       </c>
       <c r="AC10" t="n">
-        <v>61.697089444946</v>
+        <v>30.84223477352041</v>
       </c>
       <c r="AD10" t="n">
-        <v>88.13365504847673</v>
+        <v>72.92605482526062</v>
       </c>
       <c r="AE10" t="n">
-        <v>95.91310856956568</v>
+        <v>11.5970901631498</v>
       </c>
       <c r="AF10" t="n">
-        <v>28.82238027121032</v>
+        <v>35.33619724849627</v>
       </c>
       <c r="AG10" t="n">
-        <v>75.81851110385976</v>
+        <v>67.3262323484529</v>
       </c>
       <c r="AH10" t="n">
-        <v>6.476400552432409</v>
+        <v>52.7045996306715</v>
       </c>
       <c r="AI10" t="n">
-        <v>48.39734209614183</v>
+        <v>23.26724002991306</v>
       </c>
       <c r="AJ10" t="n">
-        <v>21.77832624030617</v>
+        <v>41.28110700389148</v>
       </c>
       <c r="AK10" t="n">
-        <v>20.01941634104779</v>
+        <v>66.21008654178075</v>
       </c>
       <c r="AL10" t="n">
-        <v>17.51670524577866</v>
+        <v>24.06011289375787</v>
       </c>
       <c r="AM10" t="n">
-        <v>18.06754954676662</v>
+        <v>34.73584261568855</v>
       </c>
       <c r="AN10" t="n">
-        <v>30.7334017556606</v>
+        <v>20.98561043552365</v>
       </c>
       <c r="AO10" t="n">
-        <v>29.02065724350334</v>
+        <v>28.2605619535546</v>
       </c>
       <c r="AP10" t="n">
-        <v>23.92612533654066</v>
+        <v>9.185763870728238</v>
       </c>
       <c r="AQ10" t="n">
-        <v>15.77401332455743</v>
+        <v>15.51418768511281</v>
       </c>
       <c r="AR10" t="n">
-        <v>7.705496364112502</v>
+        <v>6.018475419971506</v>
       </c>
       <c r="AS10" t="n">
-        <v>25.2069631436193</v>
+        <v>22.58974380254658</v>
       </c>
       <c r="AT10" t="n">
-        <v>33.38230692960531</v>
+        <v>26.4494919866497</v>
       </c>
       <c r="AU10" t="n">
-        <v>10.5696584949212</v>
+        <v>5.413219299902862</v>
       </c>
       <c r="AV10" t="n">
-        <v>11.82323694679223</v>
+        <v>20.64913303776663</v>
       </c>
       <c r="AW10" t="n">
-        <v>11.65418336316346</v>
+        <v>10.07741957804106</v>
       </c>
       <c r="AX10" t="n">
-        <v>8.977704571704722</v>
+        <v>8.646006378698008</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>20.46762394499614</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>28.77792679625274</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>23.29905105506699</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>3.753302033075124</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.748494203217299</v>
+        <v>7.565941985026149</v>
       </c>
       <c r="H11" t="n">
-        <v>1.373098186781236</v>
+        <v>9.975488878970463</v>
       </c>
       <c r="I11" t="n">
-        <v>43.20813683398801</v>
+        <v>14.98270333151837</v>
       </c>
       <c r="J11" t="n">
-        <v>4.187615518274246</v>
+        <v>70.83285770207559</v>
       </c>
       <c r="K11" t="n">
-        <v>14.84348024712649</v>
+        <v>55.45132026702935</v>
       </c>
       <c r="L11" t="n">
-        <v>8.504495571860513</v>
+        <v>10.21111743341866</v>
       </c>
       <c r="M11" t="n">
-        <v>64.20485015645104</v>
+        <v>9.152580162593289</v>
       </c>
       <c r="N11" t="n">
-        <v>206.9377818506215</v>
+        <v>27.38178843228788</v>
       </c>
       <c r="O11" t="n">
-        <v>55.3685766323751</v>
+        <v>21.34391574774806</v>
       </c>
       <c r="P11" t="n">
-        <v>23.377326782258</v>
+        <v>61.10933233287216</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>7.9592972810078</v>
       </c>
       <c r="R11" t="n">
-        <v>125.4691321288246</v>
+        <v>79.34577872691125</v>
       </c>
       <c r="S11" t="n">
-        <v>14.10881118261129</v>
+        <v>114.6220679279172</v>
       </c>
       <c r="T11" t="n">
-        <v>9.816129100271134</v>
+        <v>19.53057630003646</v>
       </c>
       <c r="U11" t="n">
-        <v>40.34525776667011</v>
+        <v>54.00580539288749</v>
       </c>
       <c r="V11" t="n">
-        <v>5.688704147172508</v>
+        <v>187.1754202820575</v>
       </c>
       <c r="W11" t="n">
-        <v>59.96449548870795</v>
+        <v>29.26389951444969</v>
       </c>
       <c r="X11" t="n">
-        <v>11.28614375271314</v>
+        <v>49.31454564399178</v>
       </c>
       <c r="Y11" t="n">
-        <v>22.40697612282869</v>
+        <v>103.6390382527686</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.09185149276003</v>
+        <v>90.62527205299926</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.389939731314227</v>
+        <v>26.34360727276376</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.910663308627669</v>
+        <v>81.28519734076022</v>
       </c>
       <c r="AC11" t="n">
-        <v>50.11482397534537</v>
+        <v>48.92435658016751</v>
       </c>
       <c r="AD11" t="n">
-        <v>36.00414196076869</v>
+        <v>92.60427883826168</v>
       </c>
       <c r="AE11" t="n">
-        <v>36.14309612900355</v>
+        <v>29.35558694775627</v>
       </c>
       <c r="AF11" t="n">
-        <v>52.93946367601345</v>
+        <v>3.599554586107896</v>
       </c>
       <c r="AG11" t="n">
-        <v>23.35061612192928</v>
+        <v>28.44618642922108</v>
       </c>
       <c r="AH11" t="n">
-        <v>29.50821213617434</v>
+        <v>40.59979035848973</v>
       </c>
       <c r="AI11" t="n">
-        <v>64.45118888258841</v>
+        <v>177.4369276463804</v>
       </c>
       <c r="AJ11" t="n">
-        <v>30.67396238124306</v>
+        <v>39.06750667564405</v>
       </c>
       <c r="AK11" t="n">
-        <v>21.2959889097189</v>
+        <v>12.61349721297542</v>
       </c>
       <c r="AL11" t="n">
-        <v>117.012725247134</v>
+        <v>24.65756950003381</v>
       </c>
       <c r="AM11" t="n">
-        <v>36.8863370778406</v>
+        <v>37.76986988887044</v>
       </c>
       <c r="AN11" t="n">
-        <v>20.74760383093099</v>
+        <v>1.804274770747649</v>
       </c>
       <c r="AO11" t="n">
-        <v>6.481515218401023</v>
+        <v>51.65839554885108</v>
       </c>
       <c r="AP11" t="n">
-        <v>25.88197469518131</v>
+        <v>0.129141433388829</v>
       </c>
       <c r="AQ11" t="n">
-        <v>28.15294855769372</v>
+        <v>24.335646030751</v>
       </c>
       <c r="AR11" t="n">
-        <v>30.91560204397893</v>
+        <v>5.611750933183813</v>
       </c>
       <c r="AS11" t="n">
-        <v>41.49466049295295</v>
+        <v>9.587310525829263</v>
       </c>
       <c r="AT11" t="n">
-        <v>41.51084555362704</v>
+        <v>30.44474751245939</v>
       </c>
       <c r="AU11" t="n">
-        <v>30.23256956568503</v>
+        <v>42.72495154163231</v>
       </c>
       <c r="AV11" t="n">
-        <v>19.61270378314712</v>
+        <v>26.90038208744252</v>
       </c>
       <c r="AW11" t="n">
-        <v>29.89740477324044</v>
+        <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>8.759433099841974</v>
+        <v>32.34677293323975</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>1.034015805337593</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>7.120340210409874</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1.562376640589263</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>9.411411528404734</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>6.007316438215667</v>
+        <v>14.49927355614771</v>
       </c>
       <c r="H12" t="n">
-        <v>5.862586312285629</v>
+        <v>13.66744331774048</v>
       </c>
       <c r="I12" t="n">
-        <v>7.506165339106433</v>
+        <v>13.81309862971969</v>
       </c>
       <c r="J12" t="n">
-        <v>22.24728589748681</v>
+        <v>42.02739871966475</v>
       </c>
       <c r="K12" t="n">
-        <v>18.03705189901292</v>
+        <v>20.48122207919536</v>
       </c>
       <c r="L12" t="n">
-        <v>38.62002984040967</v>
+        <v>4.273109817786207</v>
       </c>
       <c r="M12" t="n">
-        <v>24.32537492841812</v>
+        <v>81.88424041773079</v>
       </c>
       <c r="N12" t="n">
-        <v>23.64517162180268</v>
+        <v>29.28494390115486</v>
       </c>
       <c r="O12" t="n">
-        <v>30.40154022546046</v>
+        <v>15.05568472057204</v>
       </c>
       <c r="P12" t="n">
-        <v>8.997573070731097</v>
+        <v>24.51738711680904</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.159737191654</v>
+        <v>33.50157228888575</v>
       </c>
       <c r="R12" t="n">
-        <v>25.1917840917959</v>
+        <v>16.41547392823453</v>
       </c>
       <c r="S12" t="n">
-        <v>16.71148064624392</v>
+        <v>60.73414245513745</v>
       </c>
       <c r="T12" t="n">
-        <v>4.267872978654069</v>
+        <v>39.43033242469556</v>
       </c>
       <c r="U12" t="n">
-        <v>16.73884285696798</v>
+        <v>29.87433173023989</v>
       </c>
       <c r="V12" t="n">
-        <v>7.417988379157116</v>
+        <v>25.19824948486351</v>
       </c>
       <c r="W12" t="n">
-        <v>8.164636675958938</v>
+        <v>27.93211639126093</v>
       </c>
       <c r="X12" t="n">
-        <v>13.72122541470383</v>
+        <v>18.03062557840836</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.70086563740934</v>
+        <v>36.41947953677172</v>
       </c>
       <c r="Z12" t="n">
-        <v>16.69063958391159</v>
+        <v>11.42107724463479</v>
       </c>
       <c r="AA12" t="n">
-        <v>11.10720900359447</v>
+        <v>19.78641064129543</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.511551419667361</v>
+        <v>6.737320954137155</v>
       </c>
       <c r="AC12" t="n">
-        <v>14.19737531226117</v>
+        <v>11.35436567733881</v>
       </c>
       <c r="AD12" t="n">
-        <v>16.6462477048725</v>
+        <v>9.339902408968335</v>
       </c>
       <c r="AE12" t="n">
-        <v>25.06168355087919</v>
+        <v>29.22703304555505</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.133787973391977</v>
+        <v>2.585452921056457</v>
       </c>
       <c r="AG12" t="n">
-        <v>11.59656188159533</v>
+        <v>10.6160792558506</v>
       </c>
       <c r="AH12" t="n">
-        <v>8.94746722544531</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>6.991017744368492</v>
+        <v>8.151324700242549</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.597160543861498</v>
+        <v>3.259012731273404</v>
       </c>
       <c r="AK12" t="n">
-        <v>4.449695255566476</v>
+        <v>9.280827609040681</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.7417165464713023</v>
+        <v>3.848247973916658</v>
       </c>
       <c r="AM12" t="n">
-        <v>3.826589089593476</v>
+        <v>6.685342717504194</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.361076660967805</v>
+        <v>7.039853972160581</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.9677748465433317</v>
+        <v>4.388604167107978</v>
       </c>
       <c r="AP12" t="n">
-        <v>3.063524651383169</v>
+        <v>5.622115895453043</v>
       </c>
       <c r="AQ12" t="n">
-        <v>10.71025842233455</v>
+        <v>0.7622483723167541</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.884566230804896</v>
+        <v>4.168058485431701</v>
       </c>
       <c r="AS12" t="n">
-        <v>3.632139474602348</v>
+        <v>1.35745642379996</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.969910941257085</v>
+        <v>4.283402234501891</v>
       </c>
       <c r="AU12" t="n">
-        <v>1.524696721063258</v>
+        <v>5.516291083339161</v>
       </c>
       <c r="AV12" t="n">
-        <v>1.588170059494615</v>
+        <v>4.544577960797723</v>
       </c>
       <c r="AW12" t="n">
-        <v>1.378125707222015</v>
+        <v>2.442442558209827</v>
       </c>
       <c r="AX12" t="n">
-        <v>1.694457523040737</v>
+        <v>2.18354762115605</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>12.06646870851719</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>28.47061699087089</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>9.547126632147384</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>11.21186398305151</v>
+        <v>2.203361731770826</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8464630980250041</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>8.208229039985707</v>
+        <v>33.53914743721001</v>
       </c>
       <c r="I13" t="n">
-        <v>4.155100550246366</v>
+        <v>83.17599465340551</v>
       </c>
       <c r="J13" t="n">
-        <v>31.00242711810758</v>
+        <v>65.60319842711182</v>
       </c>
       <c r="K13" t="n">
-        <v>20.66669858816307</v>
+        <v>28.1438606380262</v>
       </c>
       <c r="L13" t="n">
-        <v>21.96665302012206</v>
+        <v>90.1091061955662</v>
       </c>
       <c r="M13" t="n">
-        <v>31.18933165834716</v>
+        <v>45.25014705574336</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>4.272833357519037</v>
       </c>
       <c r="O13" t="n">
-        <v>2.885666367392329</v>
+        <v>95.29416786091878</v>
       </c>
       <c r="P13" t="n">
-        <v>24.32485927809801</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.94430904859541</v>
+        <v>1.660844530575221</v>
       </c>
       <c r="R13" t="n">
-        <v>15.99088291858852</v>
+        <v>26.48376635334874</v>
       </c>
       <c r="S13" t="n">
-        <v>21.91595269576419</v>
+        <v>28.36278599171906</v>
       </c>
       <c r="T13" t="n">
-        <v>44.49465550213174</v>
+        <v>18.18169251394902</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.4146110259281863</v>
       </c>
       <c r="V13" t="n">
-        <v>10.71562997841044</v>
+        <v>31.0856402621452</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>18.03761008896037</v>
       </c>
       <c r="X13" t="n">
-        <v>13.00458036856244</v>
+        <v>3.644311311998228</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>15.47056661915592</v>
       </c>
       <c r="Z13" t="n">
-        <v>22.86236306834988</v>
+        <v>17.91676377221177</v>
       </c>
       <c r="AA13" t="n">
-        <v>7.092627110178922</v>
+        <v>12.10194936399764</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.633797234832169</v>
+        <v>36.77503897254962</v>
       </c>
       <c r="AC13" t="n">
-        <v>10.5769612286555</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>3.322906991222486</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>15.54279971539747</v>
+        <v>3.664394380248958</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.3897494691002</v>
+        <v>5.49086247509096</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>10.574894618504</v>
       </c>
       <c r="AH13" t="n">
-        <v>14.39294812839506</v>
+        <v>43.26670037193022</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.5347086407924044</v>
+        <v>6.509971566752021</v>
       </c>
       <c r="AJ13" t="n">
-        <v>11.79640499115817</v>
+        <v>6.490379278500519</v>
       </c>
       <c r="AK13" t="n">
-        <v>6.395709266694878</v>
+        <v>7.072504474082674</v>
       </c>
       <c r="AL13" t="n">
-        <v>7.275553149922898</v>
+        <v>14.87440309637552</v>
       </c>
       <c r="AM13" t="n">
-        <v>2.599783381279522</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>8.294310151411743</v>
+        <v>20.60580468107477</v>
       </c>
       <c r="AO13" t="n">
-        <v>8.463159656946623</v>
+        <v>6.924258622984002</v>
       </c>
       <c r="AP13" t="n">
-        <v>21.02575540465135</v>
+        <v>3.102241418121092</v>
       </c>
       <c r="AQ13" t="n">
-        <v>21.28866443811198</v>
+        <v>10.4387431381333</v>
       </c>
       <c r="AR13" t="n">
-        <v>8.056910017894312</v>
+        <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.298004923808823</v>
+        <v>11.1049912809493</v>
       </c>
       <c r="AT13" t="n">
-        <v>8.408615735017728</v>
+        <v>13.46925110684965</v>
       </c>
       <c r="AU13" t="n">
-        <v>14.11473040943737</v>
+        <v>0.3626362038052559</v>
       </c>
       <c r="AV13" t="n">
-        <v>19.63429845919426</v>
+        <v>1.370743230054948</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.559785386441683</v>
+        <v>0.5620774728665487</v>
       </c>
       <c r="AX13" t="n">
-        <v>3.626938974360486</v>
+        <v>5.184221243706269</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>17.61958201490477</v>
+        <v>8.587157590434213</v>
       </c>
       <c r="D14" t="n">
-        <v>9.875372553341798</v>
+        <v>6.133807034671204</v>
       </c>
       <c r="E14" t="n">
-        <v>38.85320577663173</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>93.03703594835466</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>16.10757782686623</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>13.05912144716557</v>
+        <v>22.97788429707664</v>
       </c>
       <c r="I14" t="n">
-        <v>40.83913969464043</v>
+        <v>115.3041487652999</v>
       </c>
       <c r="J14" t="n">
-        <v>17.59286576033844</v>
+        <v>41.13986490640082</v>
       </c>
       <c r="K14" t="n">
-        <v>103.2689463417281</v>
+        <v>127.7477420354042</v>
       </c>
       <c r="L14" t="n">
-        <v>57.75452718705371</v>
+        <v>57.48836969281126</v>
       </c>
       <c r="M14" t="n">
-        <v>49.75002047161014</v>
+        <v>13.41374271367259</v>
       </c>
       <c r="N14" t="n">
-        <v>62.2651089234</v>
+        <v>151.1202003754557</v>
       </c>
       <c r="O14" t="n">
-        <v>44.93272379667868</v>
+        <v>77.20244860628856</v>
       </c>
       <c r="P14" t="n">
-        <v>66.12478880730598</v>
+        <v>29.12826819769942</v>
       </c>
       <c r="Q14" t="n">
-        <v>68.07213505009867</v>
+        <v>52.02549460818992</v>
       </c>
       <c r="R14" t="n">
-        <v>73.66950090468205</v>
+        <v>42.07386862987097</v>
       </c>
       <c r="S14" t="n">
-        <v>39.96420103191176</v>
+        <v>81.60147398927623</v>
       </c>
       <c r="T14" t="n">
-        <v>31.4754669635944</v>
+        <v>41.13426347479257</v>
       </c>
       <c r="U14" t="n">
-        <v>82.70894822172387</v>
+        <v>87.58228261815808</v>
       </c>
       <c r="V14" t="n">
-        <v>71.6190620170164</v>
+        <v>44.26983428296329</v>
       </c>
       <c r="W14" t="n">
-        <v>36.4733337250782</v>
+        <v>81.10403903675028</v>
       </c>
       <c r="X14" t="n">
-        <v>49.64841296485054</v>
+        <v>61.03043058581029</v>
       </c>
       <c r="Y14" t="n">
-        <v>66.12268772923296</v>
+        <v>60.38212044697475</v>
       </c>
       <c r="Z14" t="n">
-        <v>55.82964152164417</v>
+        <v>87.24858262528116</v>
       </c>
       <c r="AA14" t="n">
-        <v>80.3620339657881</v>
+        <v>108.2603022936359</v>
       </c>
       <c r="AB14" t="n">
-        <v>119.2093026588157</v>
+        <v>70.57385927141378</v>
       </c>
       <c r="AC14" t="n">
-        <v>92.19557641576283</v>
+        <v>81.20706802812302</v>
       </c>
       <c r="AD14" t="n">
-        <v>126.7422403686422</v>
+        <v>108.7727961106639</v>
       </c>
       <c r="AE14" t="n">
-        <v>231.5474972690809</v>
+        <v>143.417779165787</v>
       </c>
       <c r="AF14" t="n">
-        <v>157.8789947428736</v>
+        <v>141.8589290808547</v>
       </c>
       <c r="AG14" t="n">
-        <v>14.98955564933186</v>
+        <v>19.7949986865059</v>
       </c>
       <c r="AH14" t="n">
-        <v>125.7616747171903</v>
+        <v>170.874293346108</v>
       </c>
       <c r="AI14" t="n">
-        <v>126.5068368354869</v>
+        <v>91.50022486621206</v>
       </c>
       <c r="AJ14" t="n">
-        <v>120.15365508175</v>
+        <v>61.60274235016744</v>
       </c>
       <c r="AK14" t="n">
-        <v>32.43932036435467</v>
+        <v>48.58152338707962</v>
       </c>
       <c r="AL14" t="n">
-        <v>17.25655531961157</v>
+        <v>20.60075790205492</v>
       </c>
       <c r="AM14" t="n">
-        <v>23.39706985747657</v>
+        <v>51.66876978679856</v>
       </c>
       <c r="AN14" t="n">
-        <v>27.38615709596063</v>
+        <v>98.26170902827974</v>
       </c>
       <c r="AO14" t="n">
-        <v>40.63527129749145</v>
+        <v>38.11041081321621</v>
       </c>
       <c r="AP14" t="n">
-        <v>30.60039191703468</v>
+        <v>30.92901780520454</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17.47235046352578</v>
+        <v>21.12244186047907</v>
       </c>
       <c r="AR14" t="n">
-        <v>15.54310814802298</v>
+        <v>26.17315875401332</v>
       </c>
       <c r="AS14" t="n">
-        <v>15.79800594290819</v>
+        <v>16.77192356956326</v>
       </c>
       <c r="AT14" t="n">
-        <v>26.23340079810649</v>
+        <v>16.60601036245617</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.828730344160505</v>
+        <v>17.23688210415897</v>
       </c>
       <c r="AV14" t="n">
-        <v>14.52642668249031</v>
+        <v>22.47724914738017</v>
       </c>
       <c r="AW14" t="n">
-        <v>20.5516301667311</v>
+        <v>23.68208506570484</v>
       </c>
       <c r="AX14" t="n">
-        <v>12.29108018494951</v>
+        <v>14.96780443582868</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>3.205956990829569</v>
+        <v>0.45258686449514</v>
       </c>
       <c r="D15" t="n">
-        <v>3.809845228556199</v>
+        <v>0.7467079291045273</v>
       </c>
       <c r="E15" t="n">
-        <v>3.183228654615466</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2.642982987502063</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>4.49928398393754</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1.959264273363078</v>
+        <v>5.074556196531375</v>
       </c>
       <c r="I15" t="n">
-        <v>8.299346085278124</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>6.77586389933272</v>
+        <v>15.19907123049296</v>
       </c>
       <c r="K15" t="n">
-        <v>4.458827531969694</v>
+        <v>5.12225459450261</v>
       </c>
       <c r="L15" t="n">
-        <v>4.50351049690217</v>
+        <v>7.071192317858991</v>
       </c>
       <c r="M15" t="n">
-        <v>11.09300220964103</v>
+        <v>7.491919535716627</v>
       </c>
       <c r="N15" t="n">
-        <v>8.185215816844547</v>
+        <v>4.127677941106681</v>
       </c>
       <c r="O15" t="n">
-        <v>4.911490202091025</v>
+        <v>11.8456080686297</v>
       </c>
       <c r="P15" t="n">
-        <v>2.085662631770296</v>
+        <v>2.935681256248498</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.083122743751496</v>
+        <v>6.580941836840918</v>
       </c>
       <c r="R15" t="n">
-        <v>1.644116335125298</v>
+        <v>4.955427730752136</v>
       </c>
       <c r="S15" t="n">
-        <v>1.225090510576345</v>
+        <v>3.454592844113725</v>
       </c>
       <c r="T15" t="n">
-        <v>7.938697880012765</v>
+        <v>0.7301189642790784</v>
       </c>
       <c r="U15" t="n">
-        <v>9.353646106415406</v>
+        <v>5.119638057348739</v>
       </c>
       <c r="V15" t="n">
-        <v>5.522070553293178</v>
+        <v>2.840515227757508</v>
       </c>
       <c r="W15" t="n">
-        <v>1.933923864721061</v>
+        <v>3.916884491689574</v>
       </c>
       <c r="X15" t="n">
-        <v>1.238921520797627</v>
+        <v>4.88257148439858</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.66659135554881</v>
+        <v>2.776376779704118</v>
       </c>
       <c r="Z15" t="n">
-        <v>5.202001411336875</v>
+        <v>5.29291035301309</v>
       </c>
       <c r="AA15" t="n">
-        <v>5.460709182047808</v>
+        <v>3.100434170603101</v>
       </c>
       <c r="AB15" t="n">
-        <v>4.99756403932741</v>
+        <v>4.12594077362879</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.772174315419362</v>
+        <v>1.929690171034529</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.094326432493336</v>
+        <v>4.913051933070868</v>
       </c>
       <c r="AE15" t="n">
-        <v>4.74755089227124</v>
+        <v>5.46012056765713</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.201949808464207</v>
+        <v>2.734915855910449</v>
       </c>
       <c r="AG15" t="n">
-        <v>3.073969058494872</v>
+        <v>3.241884271370313</v>
       </c>
       <c r="AH15" t="n">
-        <v>5.867770010319887</v>
+        <v>2.112593225674836</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>4.709691961344687</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3.500888016271444</v>
+        <v>6.071755910461441</v>
       </c>
       <c r="AK15" t="n">
-        <v>2.61294953655473</v>
+        <v>3.524058568667419</v>
       </c>
       <c r="AL15" t="n">
-        <v>5.079539345616888</v>
+        <v>5.900195887109067</v>
       </c>
       <c r="AM15" t="n">
-        <v>4.788981124826215</v>
+        <v>5.902924859053501</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.243246728966188</v>
+        <v>4.105116991856995</v>
       </c>
       <c r="AO15" t="n">
-        <v>2.342483493428055</v>
+        <v>3.056171940367987</v>
       </c>
       <c r="AP15" t="n">
-        <v>5.674498229237224</v>
+        <v>4.246157357058042</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.640855562772041</v>
+        <v>1.047993742177259</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.3493058738098265</v>
+        <v>5.330275908622889</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.777813598044937</v>
+        <v>1.52883115318639</v>
       </c>
       <c r="AT15" t="n">
-        <v>4.477188169883809</v>
+        <v>10.807572617289</v>
       </c>
       <c r="AU15" t="n">
-        <v>2.048011500591268</v>
+        <v>5.075555008100118</v>
       </c>
       <c r="AV15" t="n">
-        <v>6.336542281937195</v>
+        <v>2.941542700657808</v>
       </c>
       <c r="AW15" t="n">
-        <v>1.730448546606409</v>
+        <v>0.9172985069804755</v>
       </c>
       <c r="AX15" t="n">
-        <v>3.503783480968575</v>
+        <v>1.620861107872592</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>22.30534195271099</v>
+        <v>9.541713189457377</v>
       </c>
       <c r="D16" t="n">
-        <v>17.97947709110928</v>
+        <v>14.31246178399565</v>
       </c>
       <c r="E16" t="n">
-        <v>20.46059645875309</v>
+        <v>10.86362862613598</v>
       </c>
       <c r="F16" t="n">
-        <v>8.724744910304654</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>7.74329833302301</v>
+        <v>22.13062690572775</v>
       </c>
       <c r="H16" t="n">
-        <v>24.23084051583637</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>52.45713886489288</v>
+        <v>25.847105532743</v>
       </c>
       <c r="J16" t="n">
-        <v>180.7938995414701</v>
+        <v>25.48945055053708</v>
       </c>
       <c r="K16" t="n">
-        <v>29.70148077696619</v>
+        <v>38.59567320243188</v>
       </c>
       <c r="L16" t="n">
-        <v>124.8347571805119</v>
+        <v>100.8251713896478</v>
       </c>
       <c r="M16" t="n">
-        <v>60.19536439692591</v>
+        <v>5.788366134014582</v>
       </c>
       <c r="N16" t="n">
-        <v>23.35562052425927</v>
+        <v>62.81746961434493</v>
       </c>
       <c r="O16" t="n">
-        <v>64.11858702361891</v>
+        <v>213.0029896896699</v>
       </c>
       <c r="P16" t="n">
-        <v>79.43721633366425</v>
+        <v>288.7411038605049</v>
       </c>
       <c r="Q16" t="n">
-        <v>208.7588098454244</v>
+        <v>33.09450840985811</v>
       </c>
       <c r="R16" t="n">
-        <v>81.32578784548883</v>
+        <v>64.88384320918195</v>
       </c>
       <c r="S16" t="n">
-        <v>81.09954518410933</v>
+        <v>37.85436618857928</v>
       </c>
       <c r="T16" t="n">
-        <v>28.84697592913512</v>
+        <v>52.74670160026773</v>
       </c>
       <c r="U16" t="n">
-        <v>49.45709938170713</v>
+        <v>45.2695071215275</v>
       </c>
       <c r="V16" t="n">
-        <v>3.138490866722314</v>
+        <v>22.51590658458459</v>
       </c>
       <c r="W16" t="n">
-        <v>145.2747684372844</v>
+        <v>45.67341530875844</v>
       </c>
       <c r="X16" t="n">
-        <v>155.9116222338506</v>
+        <v>84.90282209375947</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>70.67735902358216</v>
       </c>
       <c r="Z16" t="n">
-        <v>48.09017716312009</v>
+        <v>34.21774982844422</v>
       </c>
       <c r="AA16" t="n">
-        <v>24.93574364234887</v>
+        <v>71.11711967614556</v>
       </c>
       <c r="AB16" t="n">
-        <v>90.99646535213962</v>
+        <v>139.0822062690305</v>
       </c>
       <c r="AC16" t="n">
-        <v>115.8036978112416</v>
+        <v>94.65776018598928</v>
       </c>
       <c r="AD16" t="n">
-        <v>92.53936746403458</v>
+        <v>84.55649192125937</v>
       </c>
       <c r="AE16" t="n">
-        <v>128.7550096956055</v>
+        <v>36.94042859469582</v>
       </c>
       <c r="AF16" t="n">
-        <v>99.89932403191064</v>
+        <v>59.92537707029469</v>
       </c>
       <c r="AG16" t="n">
-        <v>96.16099705610294</v>
+        <v>30.90557899907057</v>
       </c>
       <c r="AH16" t="n">
-        <v>17.39351550533737</v>
+        <v>27.0963279666528</v>
       </c>
       <c r="AI16" t="n">
-        <v>36.09956369818035</v>
+        <v>7.490305219343345</v>
       </c>
       <c r="AJ16" t="n">
-        <v>36.69524626057485</v>
+        <v>24.03095289930252</v>
       </c>
       <c r="AK16" t="n">
-        <v>35.09190344339243</v>
+        <v>35.21299333998519</v>
       </c>
       <c r="AL16" t="n">
-        <v>89.69245810414041</v>
+        <v>60.74460292593866</v>
       </c>
       <c r="AM16" t="n">
-        <v>13.64848508838836</v>
+        <v>14.62961022565039</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.671451983288076</v>
+        <v>29.82498181051338</v>
       </c>
       <c r="AO16" t="n">
-        <v>19.25350524178934</v>
+        <v>18.77817599429433</v>
       </c>
       <c r="AP16" t="n">
-        <v>21.13505031956014</v>
+        <v>13.93200727544547</v>
       </c>
       <c r="AQ16" t="n">
-        <v>16.60262174017571</v>
+        <v>12.18414710010506</v>
       </c>
       <c r="AR16" t="n">
-        <v>11.34806229453305</v>
+        <v>10.62220324867827</v>
       </c>
       <c r="AS16" t="n">
-        <v>10.00015478822444</v>
+        <v>10.44754937713321</v>
       </c>
       <c r="AT16" t="n">
-        <v>5.740888733480763</v>
+        <v>9.694679635616467</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.473886197544415</v>
+        <v>21.73712053866537</v>
       </c>
       <c r="AV16" t="n">
-        <v>15.95291642218927</v>
+        <v>35.53668170297331</v>
       </c>
       <c r="AW16" t="n">
-        <v>12.64874295991895</v>
+        <v>4.956063150187384</v>
       </c>
       <c r="AX16" t="n">
-        <v>20.77681131869194</v>
+        <v>5.276157476765828</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>12.28047150033561</v>
+        <v>17.44043360043499</v>
       </c>
       <c r="D17" t="n">
-        <v>14.00328989873177</v>
+        <v>26.42976823514222</v>
       </c>
       <c r="E17" t="n">
-        <v>18.27716478446223</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.296485611235187</v>
+        <v>18.90246071750815</v>
       </c>
       <c r="G17" t="n">
-        <v>81.50850616280522</v>
+        <v>39.8387202125556</v>
       </c>
       <c r="H17" t="n">
-        <v>53.09009920873961</v>
+        <v>21.93941498161603</v>
       </c>
       <c r="I17" t="n">
-        <v>26.73796571917065</v>
+        <v>22.36654190010604</v>
       </c>
       <c r="J17" t="n">
-        <v>195.0518318033922</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>16.00907889431033</v>
+        <v>117.1423454164365</v>
       </c>
       <c r="L17" t="n">
-        <v>34.38741460000819</v>
+        <v>47.50777274594923</v>
       </c>
       <c r="M17" t="n">
-        <v>5.096126767932389</v>
+        <v>76.43336778919866</v>
       </c>
       <c r="N17" t="n">
-        <v>70.79563021264289</v>
+        <v>118.4992539156294</v>
       </c>
       <c r="O17" t="n">
-        <v>14.94936789842193</v>
+        <v>63.15228330260219</v>
       </c>
       <c r="P17" t="n">
-        <v>23.42806714278779</v>
+        <v>16.0740743819216</v>
       </c>
       <c r="Q17" t="n">
-        <v>20.45398616031882</v>
+        <v>61.99899834609258</v>
       </c>
       <c r="R17" t="n">
-        <v>33.17896324983569</v>
+        <v>62.27680326748282</v>
       </c>
       <c r="S17" t="n">
-        <v>59.92383926315755</v>
+        <v>26.09649701424911</v>
       </c>
       <c r="T17" t="n">
-        <v>29.40978445589696</v>
+        <v>42.23838494415934</v>
       </c>
       <c r="U17" t="n">
-        <v>56.57984068178707</v>
+        <v>49.78441289925032</v>
       </c>
       <c r="V17" t="n">
-        <v>285.4619625912884</v>
+        <v>87.19884639836083</v>
       </c>
       <c r="W17" t="n">
-        <v>39.56582193058899</v>
+        <v>50.07326263661442</v>
       </c>
       <c r="X17" t="n">
-        <v>25.19047731167465</v>
+        <v>3.926223268932942</v>
       </c>
       <c r="Y17" t="n">
-        <v>32.11185906120161</v>
+        <v>60.70756553685088</v>
       </c>
       <c r="Z17" t="n">
-        <v>51.6262683402058</v>
+        <v>24.71225095630584</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.04567398394067</v>
+        <v>21.17890599035911</v>
       </c>
       <c r="AB17" t="n">
-        <v>17.19112534647104</v>
+        <v>77.25545154686395</v>
       </c>
       <c r="AC17" t="n">
-        <v>27.76994668572829</v>
+        <v>100.8120778392842</v>
       </c>
       <c r="AD17" t="n">
-        <v>39.80859223545924</v>
+        <v>1.063791943325625</v>
       </c>
       <c r="AE17" t="n">
-        <v>42.89098056829609</v>
+        <v>34.64605047630987</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>113.1006986470752</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>47.74361283977419</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>61.13737039961522</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>22.83745733309019</v>
+        <v>24.1668401840446</v>
       </c>
       <c r="AK17" t="n">
-        <v>11.35734777610642</v>
+        <v>25.98526865129744</v>
       </c>
       <c r="AL17" t="n">
-        <v>78.37922126854588</v>
+        <v>33.30898184600857</v>
       </c>
       <c r="AM17" t="n">
-        <v>36.64368715031716</v>
+        <v>4.979880631826987</v>
       </c>
       <c r="AN17" t="n">
-        <v>40.83730692292825</v>
+        <v>14.04865509050459</v>
       </c>
       <c r="AO17" t="n">
-        <v>29.30446302711725</v>
+        <v>31.03054912671398</v>
       </c>
       <c r="AP17" t="n">
-        <v>29.09972820064421</v>
+        <v>28.49154075666976</v>
       </c>
       <c r="AQ17" t="n">
-        <v>25.08510968538366</v>
+        <v>26.06656468495893</v>
       </c>
       <c r="AR17" t="n">
-        <v>21.09282115229111</v>
+        <v>26.7561991849462</v>
       </c>
       <c r="AS17" t="n">
-        <v>23.95348637739421</v>
+        <v>20.96505476671971</v>
       </c>
       <c r="AT17" t="n">
-        <v>28.61001660431392</v>
+        <v>44.63609969023264</v>
       </c>
       <c r="AU17" t="n">
-        <v>38.88964427971273</v>
+        <v>30.41713770318067</v>
       </c>
       <c r="AV17" t="n">
-        <v>0</v>
+        <v>18.7792929601129</v>
       </c>
       <c r="AW17" t="n">
-        <v>29.02622614999163</v>
+        <v>34.5485117008384</v>
       </c>
       <c r="AX17" t="n">
-        <v>4.376945512030823</v>
+        <v>45.68690732868426</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>2.566082044216564</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>2.585552001547552</v>
+        <v>15.94342029425538</v>
       </c>
       <c r="E18" t="n">
-        <v>3.581071556968893</v>
+        <v>8.320753202194169</v>
       </c>
       <c r="F18" t="n">
-        <v>5.666854319476064</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>7.452809897071836</v>
+        <v>8.496157713754304</v>
       </c>
       <c r="H18" t="n">
-        <v>7.841438313451571</v>
+        <v>5.026067459483992</v>
       </c>
       <c r="I18" t="n">
-        <v>27.54786393505186</v>
+        <v>39.86437687470142</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>5.970079871006426</v>
       </c>
       <c r="K18" t="n">
-        <v>4.140882371684556</v>
+        <v>12.68688721771245</v>
       </c>
       <c r="L18" t="n">
-        <v>19.69847081663883</v>
+        <v>22.10844248638978</v>
       </c>
       <c r="M18" t="n">
-        <v>36.54883647180848</v>
+        <v>52.86235466584601</v>
       </c>
       <c r="N18" t="n">
-        <v>13.28044204794439</v>
+        <v>61.45597582631945</v>
       </c>
       <c r="O18" t="n">
-        <v>93.98679839143684</v>
+        <v>43.51279120185495</v>
       </c>
       <c r="P18" t="n">
-        <v>32.1303695847894</v>
+        <v>24.58357349087608</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.152907895574508</v>
+        <v>18.01688579725111</v>
       </c>
       <c r="R18" t="n">
-        <v>30.82539025545778</v>
+        <v>6.336992111257633</v>
       </c>
       <c r="S18" t="n">
-        <v>10.93988474562265</v>
+        <v>13.25087836943103</v>
       </c>
       <c r="T18" t="n">
-        <v>71.88629211111937</v>
+        <v>1.112723679032808</v>
       </c>
       <c r="U18" t="n">
-        <v>17.37572679454582</v>
+        <v>48.77433088117489</v>
       </c>
       <c r="V18" t="n">
-        <v>13.53424335669453</v>
+        <v>44.33531815237026</v>
       </c>
       <c r="W18" t="n">
-        <v>42.96562688308696</v>
+        <v>40.19406254535993</v>
       </c>
       <c r="X18" t="n">
-        <v>12.53166811354251</v>
+        <v>12.48031255437298</v>
       </c>
       <c r="Y18" t="n">
-        <v>14.56622056793586</v>
+        <v>19.18365990535895</v>
       </c>
       <c r="Z18" t="n">
-        <v>15.92608824327545</v>
+        <v>16.02463490486964</v>
       </c>
       <c r="AA18" t="n">
-        <v>13.64930357603888</v>
+        <v>10.08031659338825</v>
       </c>
       <c r="AB18" t="n">
-        <v>16.71847291456066</v>
+        <v>13.07413576111654</v>
       </c>
       <c r="AC18" t="n">
-        <v>27.82032858281179</v>
+        <v>13.93233497868187</v>
       </c>
       <c r="AD18" t="n">
-        <v>38.26397625974958</v>
+        <v>15.1449218560102</v>
       </c>
       <c r="AE18" t="n">
-        <v>28.5289918476628</v>
+        <v>11.52775911232999</v>
       </c>
       <c r="AF18" t="n">
-        <v>6.145310957638786</v>
+        <v>26.36047936401002</v>
       </c>
       <c r="AG18" t="n">
-        <v>5.482791672937681</v>
+        <v>14.1793529291165</v>
       </c>
       <c r="AH18" t="n">
-        <v>17.5080739986026</v>
+        <v>5.138706216213351</v>
       </c>
       <c r="AI18" t="n">
-        <v>10.00824544605771</v>
+        <v>14.84948051175015</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11.74970943479022</v>
+        <v>8.598704178336007</v>
       </c>
       <c r="AK18" t="n">
-        <v>11.56868419545186</v>
+        <v>6.010549903196946</v>
       </c>
       <c r="AL18" t="n">
-        <v>25.07609160920777</v>
+        <v>3.018763345780487</v>
       </c>
       <c r="AM18" t="n">
-        <v>6.716022037140606</v>
+        <v>2.286570008162904</v>
       </c>
       <c r="AN18" t="n">
-        <v>2.592293582684002</v>
+        <v>4.344759461423906</v>
       </c>
       <c r="AO18" t="n">
-        <v>4.551561320947123</v>
+        <v>6.346759904527945</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.653025168237744</v>
+        <v>4.245449963996323</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.956479213835331</v>
+        <v>3.11761633447476</v>
       </c>
       <c r="AR18" t="n">
-        <v>4.490858430836384</v>
+        <v>1.320878409926759</v>
       </c>
       <c r="AS18" t="n">
-        <v>3.870264275872337</v>
+        <v>3.84256538343772</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.856974139104611</v>
+        <v>4.145754472940487</v>
       </c>
       <c r="AU18" t="n">
-        <v>2.654273139089095</v>
+        <v>1.775740471848095</v>
       </c>
       <c r="AV18" t="n">
-        <v>3.265078499504719</v>
+        <v>4.875490577380162</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.9855943758926961</v>
+        <v>1.675445948964622</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.2452789516548988</v>
+        <v>2.438145089884734</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>15.00467939392769</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>75.44294331865618</v>
+        <v>10.6182621016328</v>
       </c>
       <c r="E19" t="n">
-        <v>1.770185353257696</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>15.07048673103085</v>
+        <v>2.704637539376295</v>
       </c>
       <c r="G19" t="n">
-        <v>17.02223747728579</v>
+        <v>30.50310554997317</v>
       </c>
       <c r="H19" t="n">
-        <v>18.4574560115077</v>
+        <v>4.524733801221507</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>22.58879733786462</v>
       </c>
       <c r="J19" t="n">
-        <v>121.4324774333554</v>
+        <v>46.26788915890035</v>
       </c>
       <c r="K19" t="n">
-        <v>21.52349040017923</v>
+        <v>19.70328040116829</v>
       </c>
       <c r="L19" t="n">
-        <v>16.68373050725606</v>
+        <v>59.68520754569118</v>
       </c>
       <c r="M19" t="n">
-        <v>47.35915858828489</v>
+        <v>35.57671351940256</v>
       </c>
       <c r="N19" t="n">
-        <v>6.495011573772175</v>
+        <v>9.66119097774809</v>
       </c>
       <c r="O19" t="n">
-        <v>29.86948773478789</v>
+        <v>47.32384546430725</v>
       </c>
       <c r="P19" t="n">
-        <v>29.8560608566889</v>
+        <v>31.45786290531091</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.86020708005533</v>
+        <v>23.4574096270797</v>
       </c>
       <c r="R19" t="n">
-        <v>42.26081376033106</v>
+        <v>35.20872870010157</v>
       </c>
       <c r="S19" t="n">
-        <v>52.21341200176825</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>14.38272216764084</v>
+        <v>28.25117250859557</v>
       </c>
       <c r="U19" t="n">
-        <v>45.69324659018863</v>
+        <v>13.544142614744</v>
       </c>
       <c r="V19" t="n">
-        <v>16.76732461376039</v>
+        <v>10.39653400583062</v>
       </c>
       <c r="W19" t="n">
-        <v>4.586785911050619</v>
+        <v>14.12250017046714</v>
       </c>
       <c r="X19" t="n">
-        <v>7.983621673681382</v>
+        <v>12.48723284712347</v>
       </c>
       <c r="Y19" t="n">
-        <v>30.11616840785462</v>
+        <v>16.31209166412482</v>
       </c>
       <c r="Z19" t="n">
-        <v>3.504919617072071</v>
+        <v>34.06945189028558</v>
       </c>
       <c r="AA19" t="n">
-        <v>66.49562722231343</v>
+        <v>20.90540167785866</v>
       </c>
       <c r="AB19" t="n">
-        <v>23.75521864158299</v>
+        <v>13.59194575768008</v>
       </c>
       <c r="AC19" t="n">
-        <v>2.323625023017138</v>
+        <v>18.45405864453117</v>
       </c>
       <c r="AD19" t="n">
-        <v>34.20137918301283</v>
+        <v>6.327070937772056</v>
       </c>
       <c r="AE19" t="n">
-        <v>19.08077589335677</v>
+        <v>8.072630653022905</v>
       </c>
       <c r="AF19" t="n">
-        <v>8.697424760537379</v>
+        <v>0.9756125068844401</v>
       </c>
       <c r="AG19" t="n">
-        <v>4.285618522536076</v>
+        <v>7.0509237083981</v>
       </c>
       <c r="AH19" t="n">
-        <v>4.590444626975452</v>
+        <v>1.113760931470399</v>
       </c>
       <c r="AI19" t="n">
-        <v>20.97440084154127</v>
+        <v>6.275365620588165</v>
       </c>
       <c r="AJ19" t="n">
-        <v>2.493087457813933</v>
+        <v>1.484201579196677</v>
       </c>
       <c r="AK19" t="n">
-        <v>5.092408187382085</v>
+        <v>19.64736126204054</v>
       </c>
       <c r="AL19" t="n">
-        <v>20.00611095736722</v>
+        <v>11.60978664189284</v>
       </c>
       <c r="AM19" t="n">
-        <v>3.812763460477334</v>
+        <v>18.64189035022281</v>
       </c>
       <c r="AN19" t="n">
-        <v>6.866042042075291</v>
+        <v>3.904118581014981</v>
       </c>
       <c r="AO19" t="n">
-        <v>33.52236874858785</v>
+        <v>1.856762403466573</v>
       </c>
       <c r="AP19" t="n">
-        <v>4.160653845983588</v>
+        <v>6.490934473219188</v>
       </c>
       <c r="AQ19" t="n">
-        <v>8.796961242835534</v>
+        <v>9.137316778179038</v>
       </c>
       <c r="AR19" t="n">
-        <v>3.934643215112768</v>
+        <v>8.046900950041625</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.7270639019706966</v>
+        <v>1.262386165506452</v>
       </c>
       <c r="AT19" t="n">
-        <v>10.6703041666603</v>
+        <v>16.3362196055111</v>
       </c>
       <c r="AU19" t="n">
-        <v>3.221918876971651</v>
+        <v>0</v>
       </c>
       <c r="AV19" t="n">
-        <v>10.91264625439132</v>
+        <v>5.853704924778565</v>
       </c>
       <c r="AW19" t="n">
-        <v>6.896407780196834</v>
+        <v>9.612158604315567</v>
       </c>
       <c r="AX19" t="n">
-        <v>10.0586229287418</v>
+        <v>7.331059455675268</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>8.672647616539363</v>
+        <v>18.64905347580729</v>
       </c>
       <c r="D20" t="n">
-        <v>33.12044900214799</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>26.51495642883215</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>12.71118828768847</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>7.098463705504757</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>23.65110714289985</v>
+        <v>29.5083144471838</v>
       </c>
       <c r="I20" t="n">
-        <v>44.54330604609758</v>
+        <v>26.4440477142228</v>
       </c>
       <c r="J20" t="n">
-        <v>85.71628460870521</v>
+        <v>80.40437660117715</v>
       </c>
       <c r="K20" t="n">
-        <v>37.50852818722421</v>
+        <v>23.00952038379222</v>
       </c>
       <c r="L20" t="n">
-        <v>154.3740063569001</v>
+        <v>28.693629915434</v>
       </c>
       <c r="M20" t="n">
-        <v>41.94286735798053</v>
+        <v>57.16112718291768</v>
       </c>
       <c r="N20" t="n">
-        <v>80.21053231783456</v>
+        <v>35.55941946424422</v>
       </c>
       <c r="O20" t="n">
-        <v>28.05192776132274</v>
+        <v>88.86908012240198</v>
       </c>
       <c r="P20" t="n">
-        <v>13.80188696873125</v>
+        <v>59.46543467444414</v>
       </c>
       <c r="Q20" t="n">
-        <v>77.16443626735733</v>
+        <v>77.43793962392589</v>
       </c>
       <c r="R20" t="n">
-        <v>30.55451686025506</v>
+        <v>86.99687911119678</v>
       </c>
       <c r="S20" t="n">
-        <v>104.9880133440721</v>
+        <v>132.1408894080039</v>
       </c>
       <c r="T20" t="n">
-        <v>68.07688659733643</v>
+        <v>43.70909092421988</v>
       </c>
       <c r="U20" t="n">
-        <v>130.8025929235047</v>
+        <v>111.4444188871715</v>
       </c>
       <c r="V20" t="n">
-        <v>175.1452333638144</v>
+        <v>55.93719870358002</v>
       </c>
       <c r="W20" t="n">
-        <v>39.55720112817839</v>
+        <v>45.01628380939574</v>
       </c>
       <c r="X20" t="n">
-        <v>50.10818239557936</v>
+        <v>40.36610587705929</v>
       </c>
       <c r="Y20" t="n">
-        <v>90.35516343859625</v>
+        <v>35.53811309466975</v>
       </c>
       <c r="Z20" t="n">
-        <v>61.08927939647651</v>
+        <v>183.2096708351019</v>
       </c>
       <c r="AA20" t="n">
-        <v>103.1956570927864</v>
+        <v>61.03343503346835</v>
       </c>
       <c r="AB20" t="n">
-        <v>79.82874304601413</v>
+        <v>82.87354734882469</v>
       </c>
       <c r="AC20" t="n">
-        <v>111.1510636906515</v>
+        <v>163.4075102037859</v>
       </c>
       <c r="AD20" t="n">
-        <v>117.5029851163054</v>
+        <v>176.1126425005668</v>
       </c>
       <c r="AE20" t="n">
-        <v>175.8419199014963</v>
+        <v>103.1131008486439</v>
       </c>
       <c r="AF20" t="n">
-        <v>87.73612603936142</v>
+        <v>115.1487385271942</v>
       </c>
       <c r="AG20" t="n">
-        <v>39.71298989227529</v>
+        <v>20.36164071711606</v>
       </c>
       <c r="AH20" t="n">
-        <v>133.4088593459375</v>
+        <v>68.08069169666629</v>
       </c>
       <c r="AI20" t="n">
-        <v>166.7572512945032</v>
+        <v>70.80621389175778</v>
       </c>
       <c r="AJ20" t="n">
-        <v>129.6680707891893</v>
+        <v>74.20706287870723</v>
       </c>
       <c r="AK20" t="n">
-        <v>51.1769629055386</v>
+        <v>39.76193200680712</v>
       </c>
       <c r="AL20" t="n">
-        <v>26.71529498889072</v>
+        <v>85.37957770182187</v>
       </c>
       <c r="AM20" t="n">
-        <v>23.19549779165684</v>
+        <v>12.40848258416569</v>
       </c>
       <c r="AN20" t="n">
-        <v>25.5539985775553</v>
+        <v>21.17456697598769</v>
       </c>
       <c r="AO20" t="n">
-        <v>14.42659733034022</v>
+        <v>36.62006657312638</v>
       </c>
       <c r="AP20" t="n">
-        <v>23.97503988190055</v>
+        <v>24.28336016653281</v>
       </c>
       <c r="AQ20" t="n">
-        <v>16.58148427162195</v>
+        <v>24.34572342003143</v>
       </c>
       <c r="AR20" t="n">
-        <v>8.787947281640051</v>
+        <v>14.85229688649502</v>
       </c>
       <c r="AS20" t="n">
-        <v>17.43970920146131</v>
+        <v>17.99049138904158</v>
       </c>
       <c r="AT20" t="n">
-        <v>28.26221430735773</v>
+        <v>23.62888502470922</v>
       </c>
       <c r="AU20" t="n">
-        <v>22.84939560064343</v>
+        <v>29.32685267086236</v>
       </c>
       <c r="AV20" t="n">
-        <v>22.95536351280735</v>
+        <v>12.11987433319705</v>
       </c>
       <c r="AW20" t="n">
-        <v>27.65955163950919</v>
+        <v>22.64283555911494</v>
       </c>
       <c r="AX20" t="n">
-        <v>13.41633741150414</v>
+        <v>13.39300106947817</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>1.085348953013464</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.281640598764298</v>
+        <v>5.225240757016095</v>
       </c>
       <c r="E21" t="n">
-        <v>2.688242278921722</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>5.927212132796127</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>6.049484499355564</v>
+        <v>2.848896986255563</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>7.131504341973693</v>
       </c>
       <c r="I21" t="n">
-        <v>2.141656635222394</v>
+        <v>5.478552303909096</v>
       </c>
       <c r="J21" t="n">
-        <v>5.318015654305166</v>
+        <v>0.2780792940223289</v>
       </c>
       <c r="K21" t="n">
-        <v>4.237213559432393</v>
+        <v>4.306448344051349</v>
       </c>
       <c r="L21" t="n">
-        <v>0.8871001920282767</v>
+        <v>5.793138868768791</v>
       </c>
       <c r="M21" t="n">
-        <v>2.874259849049449</v>
+        <v>9.10235645483839</v>
       </c>
       <c r="N21" t="n">
-        <v>6.407346817626879</v>
+        <v>3.616046549728467</v>
       </c>
       <c r="O21" t="n">
-        <v>7.530814359822628</v>
+        <v>0.5448703718915626</v>
       </c>
       <c r="P21" t="n">
-        <v>8.822926085062209</v>
+        <v>3.715832309042212</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.801438457142476</v>
+        <v>18.82299429604058</v>
       </c>
       <c r="R21" t="n">
-        <v>3.581341803758177</v>
+        <v>2.238078966786023</v>
       </c>
       <c r="S21" t="n">
-        <v>10.35798426830989</v>
+        <v>7.957922727957765</v>
       </c>
       <c r="T21" t="n">
-        <v>4.16438501080318</v>
+        <v>2.749066321749289</v>
       </c>
       <c r="U21" t="n">
-        <v>9.331074644663174</v>
+        <v>6.114960524610116</v>
       </c>
       <c r="V21" t="n">
-        <v>3.690741193638327</v>
+        <v>2.844858977705574</v>
       </c>
       <c r="W21" t="n">
-        <v>4.982639994849277</v>
+        <v>2.812511673236479</v>
       </c>
       <c r="X21" t="n">
-        <v>11.61025637556101</v>
+        <v>3.600456210500109</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.01983978898349</v>
+        <v>2.065065989183158</v>
       </c>
       <c r="Z21" t="n">
-        <v>3.501798290423346</v>
+        <v>5.254963553285426</v>
       </c>
       <c r="AA21" t="n">
-        <v>5.978438049823566</v>
+        <v>1.94281492280851</v>
       </c>
       <c r="AB21" t="n">
-        <v>3.017278898105208</v>
+        <v>2.36655571737281</v>
       </c>
       <c r="AC21" t="n">
-        <v>6.663958714570892</v>
+        <v>5.595577366879218</v>
       </c>
       <c r="AD21" t="n">
-        <v>4.278326026537127</v>
+        <v>5.217402370722571</v>
       </c>
       <c r="AE21" t="n">
-        <v>7.210920742982688</v>
+        <v>6.139193276574068</v>
       </c>
       <c r="AF21" t="n">
-        <v>6.225161702564965</v>
+        <v>7.565549066803139</v>
       </c>
       <c r="AG21" t="n">
-        <v>1.869841277499712</v>
+        <v>8.608103552158543</v>
       </c>
       <c r="AH21" t="n">
-        <v>4.769285714085339</v>
+        <v>2.80506091050382</v>
       </c>
       <c r="AI21" t="n">
-        <v>6.302046378973079</v>
+        <v>5.04586000416881</v>
       </c>
       <c r="AJ21" t="n">
-        <v>5.355988146222334</v>
+        <v>6.22625166990988</v>
       </c>
       <c r="AK21" t="n">
-        <v>3.747779380872722</v>
+        <v>4.618848747302603</v>
       </c>
       <c r="AL21" t="n">
-        <v>4.262539181306965</v>
+        <v>5.933147198536918</v>
       </c>
       <c r="AM21" t="n">
-        <v>2.628874242013917</v>
+        <v>11.54566230649927</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.419834225638974</v>
+        <v>8.663498172787461</v>
       </c>
       <c r="AO21" t="n">
-        <v>1.735520837386485</v>
+        <v>4.066822006098313</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.258242320711952</v>
+        <v>4.627101831138335</v>
       </c>
       <c r="AQ21" t="n">
-        <v>6.030330054811338</v>
+        <v>4.513402878770203</v>
       </c>
       <c r="AR21" t="n">
-        <v>4.72568141564939</v>
+        <v>5.46327524160462</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.579465398011362</v>
+        <v>2.241046654823382</v>
       </c>
       <c r="AT21" t="n">
-        <v>5.214051818864026</v>
+        <v>2.974019037881035</v>
       </c>
       <c r="AU21" t="n">
-        <v>1.380255816816407</v>
+        <v>7.090640244260065</v>
       </c>
       <c r="AV21" t="n">
-        <v>1.282759945145383</v>
+        <v>3.619529380036476</v>
       </c>
       <c r="AW21" t="n">
-        <v>4.058145868241505</v>
+        <v>1.544427739917461</v>
       </c>
       <c r="AX21" t="n">
-        <v>5.297946087781195</v>
+        <v>3.830212781210637</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>10.27958305413654</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>2.108866453967487</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>19.11462091104104</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>21.35032094865023</v>
+        <v>7.39554742806345</v>
       </c>
       <c r="G22" t="n">
-        <v>10.89148429332933</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>15.34643038662193</v>
+        <v>17.76307901807696</v>
       </c>
       <c r="I22" t="n">
-        <v>4.921183813739774</v>
+        <v>54.1175979046472</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>76.41651448437871</v>
+        <v>45.41474718858526</v>
       </c>
       <c r="L22" t="n">
-        <v>216.6493718746717</v>
+        <v>122.3343088171433</v>
       </c>
       <c r="M22" t="n">
-        <v>38.35667624446101</v>
+        <v>110.9282958033038</v>
       </c>
       <c r="N22" t="n">
-        <v>270.8280849758674</v>
+        <v>26.6484025546572</v>
       </c>
       <c r="O22" t="n">
-        <v>29.71807061006488</v>
+        <v>45.92869628932716</v>
       </c>
       <c r="P22" t="n">
-        <v>14.88733440703622</v>
+        <v>102.7646641418784</v>
       </c>
       <c r="Q22" t="n">
-        <v>33.47435207244972</v>
+        <v>102.9003071209664</v>
       </c>
       <c r="R22" t="n">
-        <v>85.193293933826</v>
+        <v>66.97429283123307</v>
       </c>
       <c r="S22" t="n">
-        <v>55.70269169641796</v>
+        <v>51.05665943498033</v>
       </c>
       <c r="T22" t="n">
-        <v>44.61461220080726</v>
+        <v>33.49928340062274</v>
       </c>
       <c r="U22" t="n">
-        <v>23.42549326586946</v>
+        <v>57.8109032747353</v>
       </c>
       <c r="V22" t="n">
-        <v>33.4164398279525</v>
+        <v>34.33931519108822</v>
       </c>
       <c r="W22" t="n">
-        <v>100.93000503532</v>
+        <v>25.39676484116661</v>
       </c>
       <c r="X22" t="n">
-        <v>194.5670671412192</v>
+        <v>74.50390912026188</v>
       </c>
       <c r="Y22" t="n">
-        <v>77.69248250217224</v>
+        <v>123.8820856125484</v>
       </c>
       <c r="Z22" t="n">
-        <v>51.6951668784998</v>
+        <v>48.46451896088353</v>
       </c>
       <c r="AA22" t="n">
-        <v>99.8616593489501</v>
+        <v>69.70816477930001</v>
       </c>
       <c r="AB22" t="n">
-        <v>87.585693253843</v>
+        <v>107.6262809171572</v>
       </c>
       <c r="AC22" t="n">
-        <v>63.44401459572244</v>
+        <v>67.44758864509666</v>
       </c>
       <c r="AD22" t="n">
-        <v>86.82924455776781</v>
+        <v>99.04319095066629</v>
       </c>
       <c r="AE22" t="n">
-        <v>69.15929661999044</v>
+        <v>61.09479379702309</v>
       </c>
       <c r="AF22" t="n">
-        <v>40.7458818875593</v>
+        <v>44.91303394166874</v>
       </c>
       <c r="AG22" t="n">
-        <v>108.252934217709</v>
+        <v>75.02093142949548</v>
       </c>
       <c r="AH22" t="n">
-        <v>50.6137540180887</v>
+        <v>30.91647223567575</v>
       </c>
       <c r="AI22" t="n">
-        <v>66.1381645727306</v>
+        <v>112.5243682233959</v>
       </c>
       <c r="AJ22" t="n">
-        <v>17.57350393984085</v>
+        <v>22.43109067946585</v>
       </c>
       <c r="AK22" t="n">
-        <v>44.47784105128449</v>
+        <v>34.59114889755132</v>
       </c>
       <c r="AL22" t="n">
-        <v>62.15937753697338</v>
+        <v>19.66751662887539</v>
       </c>
       <c r="AM22" t="n">
-        <v>55.43794123864658</v>
+        <v>15.43362425061809</v>
       </c>
       <c r="AN22" t="n">
-        <v>44.33681249595222</v>
+        <v>12.68329524578025</v>
       </c>
       <c r="AO22" t="n">
-        <v>14.10580012387787</v>
+        <v>14.6221166538828</v>
       </c>
       <c r="AP22" t="n">
-        <v>31.88119001377637</v>
+        <v>11.18444392549577</v>
       </c>
       <c r="AQ22" t="n">
-        <v>23.59297605880502</v>
+        <v>32.23730497311461</v>
       </c>
       <c r="AR22" t="n">
-        <v>18.90003688567979</v>
+        <v>8.563774333050272</v>
       </c>
       <c r="AS22" t="n">
-        <v>15.36383230609575</v>
+        <v>12.14030782071399</v>
       </c>
       <c r="AT22" t="n">
-        <v>16.24696465661187</v>
+        <v>11.5719935477472</v>
       </c>
       <c r="AU22" t="n">
-        <v>22.92676585157268</v>
+        <v>24.81393699500802</v>
       </c>
       <c r="AV22" t="n">
-        <v>18.37075565592624</v>
+        <v>11.30702087815999</v>
       </c>
       <c r="AW22" t="n">
-        <v>10.92425623039646</v>
+        <v>15.37746846155461</v>
       </c>
       <c r="AX22" t="n">
-        <v>10.70917501452374</v>
+        <v>15.26828631706817</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>1.324345536709917</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>28.24957332277327</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>27.5845376173227</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.009096930873707443</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.112186075946573</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>44.3511282288251</v>
+        <v>8.557147245104813</v>
       </c>
       <c r="I23" t="n">
-        <v>4.779286302037097</v>
+        <v>55.35098341265127</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>97.23474056587963</v>
+        <v>23.46631171041144</v>
       </c>
       <c r="L23" t="n">
-        <v>8.924108297092504</v>
+        <v>13.09539507142583</v>
       </c>
       <c r="M23" t="n">
-        <v>4.44791946826072</v>
+        <v>50.2577769553063</v>
       </c>
       <c r="N23" t="n">
-        <v>82.27856991415416</v>
+        <v>0.6540146166099561</v>
       </c>
       <c r="O23" t="n">
-        <v>18.60562185430857</v>
+        <v>80.67788808140929</v>
       </c>
       <c r="P23" t="n">
-        <v>29.43880931903099</v>
+        <v>15.2969974674211</v>
       </c>
       <c r="Q23" t="n">
-        <v>20.39673304338277</v>
+        <v>169.1428189705988</v>
       </c>
       <c r="R23" t="n">
-        <v>24.81054991069898</v>
+        <v>4.585412139223976</v>
       </c>
       <c r="S23" t="n">
-        <v>84.35470025672905</v>
+        <v>45.24804556197319</v>
       </c>
       <c r="T23" t="n">
-        <v>18.98025964954726</v>
+        <v>11.1307511029059</v>
       </c>
       <c r="U23" t="n">
-        <v>34.08172200161409</v>
+        <v>31.18342414362411</v>
       </c>
       <c r="V23" t="n">
-        <v>109.4866878449697</v>
+        <v>54.05024566522408</v>
       </c>
       <c r="W23" t="n">
-        <v>128.8832422059049</v>
+        <v>59.1273791899162</v>
       </c>
       <c r="X23" t="n">
-        <v>44.64197430587351</v>
+        <v>35.74324011120961</v>
       </c>
       <c r="Y23" t="n">
-        <v>12.8163737597843</v>
+        <v>25.81737705387604</v>
       </c>
       <c r="Z23" t="n">
-        <v>46.1272972305986</v>
+        <v>35.40463958807271</v>
       </c>
       <c r="AA23" t="n">
-        <v>33.92994025860211</v>
+        <v>9.785609381846175</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>29.01986076475327</v>
       </c>
       <c r="AC23" t="n">
-        <v>53.97854346282984</v>
+        <v>23.66401640075513</v>
       </c>
       <c r="AD23" t="n">
-        <v>29.3722976241846</v>
+        <v>44.77579799961082</v>
       </c>
       <c r="AE23" t="n">
-        <v>19.11201165636291</v>
+        <v>27.27863638483159</v>
       </c>
       <c r="AF23" t="n">
-        <v>40.91298978217637</v>
+        <v>63.10253077950387</v>
       </c>
       <c r="AG23" t="n">
-        <v>11.1877921275947</v>
+        <v>35.60069426015698</v>
       </c>
       <c r="AH23" t="n">
-        <v>43.52395610917528</v>
+        <v>19.3460025595457</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>31.04527700609435</v>
       </c>
       <c r="AJ23" t="n">
-        <v>24.5291442151145</v>
+        <v>32.91866343211318</v>
       </c>
       <c r="AK23" t="n">
-        <v>29.52012563131556</v>
+        <v>26.81619147499253</v>
       </c>
       <c r="AL23" t="n">
-        <v>22.64510460226052</v>
+        <v>6.726258184597464</v>
       </c>
       <c r="AM23" t="n">
-        <v>11.41452717007022</v>
+        <v>4.315922160422534</v>
       </c>
       <c r="AN23" t="n">
-        <v>23.36215949442814</v>
+        <v>0</v>
       </c>
       <c r="AO23" t="n">
-        <v>27.97005143184818</v>
+        <v>11.51056040975649</v>
       </c>
       <c r="AP23" t="n">
-        <v>21.04458864849252</v>
+        <v>15.92716485972078</v>
       </c>
       <c r="AQ23" t="n">
-        <v>48.46492140026015</v>
+        <v>20.80894298875898</v>
       </c>
       <c r="AR23" t="n">
-        <v>25.57097447241714</v>
+        <v>37.1792361099375</v>
       </c>
       <c r="AS23" t="n">
-        <v>18.33781269179911</v>
+        <v>22.09901183152161</v>
       </c>
       <c r="AT23" t="n">
-        <v>21.41590346270651</v>
+        <v>24.60099145640845</v>
       </c>
       <c r="AU23" t="n">
-        <v>19.77449978520534</v>
+        <v>37.5301649834132</v>
       </c>
       <c r="AV23" t="n">
-        <v>31.91491358533029</v>
+        <v>25.26031817239736</v>
       </c>
       <c r="AW23" t="n">
-        <v>25.70584121613091</v>
+        <v>29.00273373913097</v>
       </c>
       <c r="AX23" t="n">
-        <v>18.59894662450703</v>
+        <v>25.06853834215815</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>3.334639010382233</v>
+        <v>4.696535212698323</v>
       </c>
       <c r="D24" t="n">
-        <v>3.900919170894003</v>
+        <v>5.197197687609778</v>
       </c>
       <c r="E24" t="n">
-        <v>1.316587511828696</v>
+        <v>3.079152288090762</v>
       </c>
       <c r="F24" t="n">
-        <v>6.423656189591195</v>
+        <v>2.991374953127538</v>
       </c>
       <c r="G24" t="n">
-        <v>3.968727846788982</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1.176609996217625</v>
+        <v>8.909476382381683</v>
       </c>
       <c r="I24" t="n">
-        <v>13.46079960134999</v>
+        <v>20.01941999849248</v>
       </c>
       <c r="J24" t="n">
-        <v>54.8299366115106</v>
+        <v>2.292433702115362</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9898707567394198</v>
+        <v>17.76221340572294</v>
       </c>
       <c r="L24" t="n">
-        <v>22.73881330097347</v>
+        <v>2.328216364282056</v>
       </c>
       <c r="M24" t="n">
-        <v>63.20058888378253</v>
+        <v>12.98345949930095</v>
       </c>
       <c r="N24" t="n">
-        <v>32.93258194197129</v>
+        <v>23.19717549839235</v>
       </c>
       <c r="O24" t="n">
-        <v>23.14591723914386</v>
+        <v>14.88884845476129</v>
       </c>
       <c r="P24" t="n">
-        <v>12.89499252589191</v>
+        <v>41.76339547309983</v>
       </c>
       <c r="Q24" t="n">
-        <v>26.76114638174376</v>
+        <v>10.54140415257792</v>
       </c>
       <c r="R24" t="n">
-        <v>23.40922779773187</v>
+        <v>40.22151177816028</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>16.45310763184046</v>
       </c>
       <c r="T24" t="n">
-        <v>23.74851899974338</v>
+        <v>11.63353454382592</v>
       </c>
       <c r="U24" t="n">
-        <v>16.34329346931154</v>
+        <v>36.97510451022923</v>
       </c>
       <c r="V24" t="n">
-        <v>37.81936974881557</v>
+        <v>15.30374321023061</v>
       </c>
       <c r="W24" t="n">
-        <v>32.59545337661058</v>
+        <v>15.27446918152686</v>
       </c>
       <c r="X24" t="n">
-        <v>6.46364654453876</v>
+        <v>5.022403676464416</v>
       </c>
       <c r="Y24" t="n">
-        <v>42.65588617841134</v>
+        <v>20.16228915414166</v>
       </c>
       <c r="Z24" t="n">
-        <v>16.41799853306118</v>
+        <v>17.34601283679241</v>
       </c>
       <c r="AA24" t="n">
-        <v>18.30347779331798</v>
+        <v>12.27128384846997</v>
       </c>
       <c r="AB24" t="n">
-        <v>14.76627555221871</v>
+        <v>21.26535693788787</v>
       </c>
       <c r="AC24" t="n">
-        <v>17.80423771290356</v>
+        <v>15.55327464131189</v>
       </c>
       <c r="AD24" t="n">
-        <v>16.01116169656112</v>
+        <v>10.82245283992037</v>
       </c>
       <c r="AE24" t="n">
-        <v>21.09247141843181</v>
+        <v>9.161461946237818</v>
       </c>
       <c r="AF24" t="n">
-        <v>12.19224056737904</v>
+        <v>13.36258602563074</v>
       </c>
       <c r="AG24" t="n">
-        <v>11.17868316475121</v>
+        <v>6.877903383810894</v>
       </c>
       <c r="AH24" t="n">
-        <v>6.975945496715548</v>
+        <v>19.99659470962905</v>
       </c>
       <c r="AI24" t="n">
-        <v>22.10136182067188</v>
+        <v>13.65986194544575</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6.982293856076266</v>
+        <v>16.91748538667296</v>
       </c>
       <c r="AK24" t="n">
-        <v>10.89761913009185</v>
+        <v>0.1803859849998954</v>
       </c>
       <c r="AL24" t="n">
-        <v>2.865088354170622</v>
+        <v>6.393701697375247</v>
       </c>
       <c r="AM24" t="n">
-        <v>2.003320824655702</v>
+        <v>4.703262234022435</v>
       </c>
       <c r="AN24" t="n">
-        <v>2.236412906756359</v>
+        <v>3.348325199994423</v>
       </c>
       <c r="AO24" t="n">
-        <v>6.480833730733865</v>
+        <v>1.239553079031857</v>
       </c>
       <c r="AP24" t="n">
-        <v>2.463062700109269</v>
+        <v>2.310742521725673</v>
       </c>
       <c r="AQ24" t="n">
-        <v>3.814543237201871</v>
+        <v>2.984258959373079</v>
       </c>
       <c r="AR24" t="n">
-        <v>5.253077045954374</v>
+        <v>2.106875275313748</v>
       </c>
       <c r="AS24" t="n">
-        <v>12.50307178308895</v>
+        <v>7.030503827352378</v>
       </c>
       <c r="AT24" t="n">
-        <v>5.463914861313861</v>
+        <v>3.785830895528811</v>
       </c>
       <c r="AU24" t="n">
-        <v>10.05606843731379</v>
+        <v>0.5225878765568728</v>
       </c>
       <c r="AV24" t="n">
-        <v>4.068443699624109</v>
+        <v>5.21735499570107</v>
       </c>
       <c r="AW24" t="n">
-        <v>3.514926014601665</v>
+        <v>0</v>
       </c>
       <c r="AX24" t="n">
-        <v>2.89558714990312</v>
+        <v>5.375837144257236</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>69.87189887608675</v>
+        <v>1.514008097713594</v>
       </c>
       <c r="D25" t="n">
-        <v>14.04344513046844</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>13.8368289699106</v>
+        <v>11.73830472457633</v>
       </c>
       <c r="G25" t="n">
-        <v>8.05287476411759</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>11.35620617826269</v>
+        <v>6.608818183633133</v>
       </c>
       <c r="I25" t="n">
-        <v>21.34747820012672</v>
+        <v>38.41601748501289</v>
       </c>
       <c r="J25" t="n">
-        <v>11.08477079382603</v>
+        <v>22.87348499945947</v>
       </c>
       <c r="K25" t="n">
-        <v>30.24778371015784</v>
+        <v>9.541156697877485</v>
       </c>
       <c r="L25" t="n">
-        <v>48.49278941204958</v>
+        <v>67.87148669379286</v>
       </c>
       <c r="M25" t="n">
-        <v>67.73533614795456</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>50.81978031659607</v>
+        <v>39.32649343563077</v>
       </c>
       <c r="O25" t="n">
-        <v>19.78691408998923</v>
+        <v>13.06340830811634</v>
       </c>
       <c r="P25" t="n">
-        <v>16.97923061097707</v>
+        <v>43.4494649222955</v>
       </c>
       <c r="Q25" t="n">
-        <v>100.4820707698521</v>
+        <v>35.7951486171963</v>
       </c>
       <c r="R25" t="n">
-        <v>11.06352744574659</v>
+        <v>87.97653591984655</v>
       </c>
       <c r="S25" t="n">
-        <v>0.8502600588620028</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>9.961716315328776</v>
+        <v>8.480741588788952</v>
       </c>
       <c r="U25" t="n">
-        <v>33.25498612441687</v>
+        <v>24.53208021268602</v>
       </c>
       <c r="V25" t="n">
-        <v>43.32823041454168</v>
+        <v>13.34905018543822</v>
       </c>
       <c r="W25" t="n">
-        <v>41.27416089914571</v>
+        <v>14.43426892631235</v>
       </c>
       <c r="X25" t="n">
-        <v>28.87925337573506</v>
+        <v>3.569768695511284</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.949269160538513</v>
+        <v>93.76998950811065</v>
       </c>
       <c r="Z25" t="n">
-        <v>18.11853784247143</v>
+        <v>33.65456218062351</v>
       </c>
       <c r="AA25" t="n">
-        <v>4.764099134358895</v>
+        <v>53.00352986128485</v>
       </c>
       <c r="AB25" t="n">
-        <v>2.105887486587399</v>
+        <v>9.42213026136254</v>
       </c>
       <c r="AC25" t="n">
-        <v>16.4058832669847</v>
+        <v>18.69518275753569</v>
       </c>
       <c r="AD25" t="n">
-        <v>9.142064697557194</v>
+        <v>18.92093946650154</v>
       </c>
       <c r="AE25" t="n">
-        <v>55.99821478753442</v>
+        <v>32.48762112292768</v>
       </c>
       <c r="AF25" t="n">
-        <v>13.67783235688888</v>
+        <v>0.4118607211799867</v>
       </c>
       <c r="AG25" t="n">
-        <v>4.563321419592151</v>
+        <v>4.107743609974693</v>
       </c>
       <c r="AH25" t="n">
-        <v>46.37850075632876</v>
+        <v>3.720244111983465</v>
       </c>
       <c r="AI25" t="n">
-        <v>3.273547080816027</v>
+        <v>2.258665732836825</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>24.23305883610173</v>
       </c>
       <c r="AK25" t="n">
-        <v>16.45158747559503</v>
+        <v>0.9161418750053838</v>
       </c>
       <c r="AL25" t="n">
-        <v>10.34696534951241</v>
+        <v>3.831147738889028</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>21.95786164693681</v>
       </c>
       <c r="AN25" t="n">
-        <v>7.74381783603555</v>
+        <v>0.9285592654756637</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>2.08273615543415</v>
       </c>
       <c r="AP25" t="n">
-        <v>3.350335795667226</v>
+        <v>0</v>
       </c>
       <c r="AQ25" t="n">
-        <v>4.654832606968768</v>
+        <v>6.531687204802413</v>
       </c>
       <c r="AR25" t="n">
-        <v>0.007163664329334796</v>
+        <v>4.230284891091125</v>
       </c>
       <c r="AS25" t="n">
-        <v>18.89352026880119</v>
+        <v>8.978091607460881</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.906492146003575</v>
+        <v>13.83548338434829</v>
       </c>
       <c r="AU25" t="n">
-        <v>2.207135448660445</v>
+        <v>9.072958507023271</v>
       </c>
       <c r="AV25" t="n">
-        <v>1.047487408886902</v>
+        <v>8.56306274344154</v>
       </c>
       <c r="AW25" t="n">
-        <v>1.809388388032215</v>
+        <v>12.1166287958559</v>
       </c>
       <c r="AX25" t="n">
-        <v>4.955141309925495</v>
+        <v>13.97180061122348</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>21.91713907728769</v>
+        <v>18.14043074059233</v>
       </c>
       <c r="D26" t="n">
-        <v>11.43210670070981</v>
+        <v>15.01644905860343</v>
       </c>
       <c r="E26" t="n">
-        <v>26.10011395234109</v>
+        <v>36.49945055302022</v>
       </c>
       <c r="F26" t="n">
-        <v>16.42115417584914</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>21.03583085895941</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>4.441464907340352</v>
+        <v>195.4515531136489</v>
       </c>
       <c r="I26" t="n">
-        <v>52.00491410392183</v>
+        <v>45.4184100318285</v>
       </c>
       <c r="J26" t="n">
-        <v>46.12032976431708</v>
+        <v>80.70040539604172</v>
       </c>
       <c r="K26" t="n">
-        <v>72.53368623695532</v>
+        <v>126.6793113237402</v>
       </c>
       <c r="L26" t="n">
-        <v>79.69705507585088</v>
+        <v>21.26027254956367</v>
       </c>
       <c r="M26" t="n">
-        <v>81.20413973905745</v>
+        <v>18.60702472691762</v>
       </c>
       <c r="N26" t="n">
-        <v>86.04072133959698</v>
+        <v>76.86504964557369</v>
       </c>
       <c r="O26" t="n">
-        <v>10.19461193785026</v>
+        <v>49.37573321348034</v>
       </c>
       <c r="P26" t="n">
-        <v>51.71803043197276</v>
+        <v>102.3362786673219</v>
       </c>
       <c r="Q26" t="n">
-        <v>54.64460763246742</v>
+        <v>64.6948922086372</v>
       </c>
       <c r="R26" t="n">
-        <v>2.912337429885909</v>
+        <v>41.38640317054067</v>
       </c>
       <c r="S26" t="n">
-        <v>71.54680403496423</v>
+        <v>106.698833441515</v>
       </c>
       <c r="T26" t="n">
-        <v>100.2212433233862</v>
+        <v>68.46779391559649</v>
       </c>
       <c r="U26" t="n">
-        <v>24.78885507908805</v>
+        <v>31.64830704802335</v>
       </c>
       <c r="V26" t="n">
-        <v>64.02425363452136</v>
+        <v>40.30626654145918</v>
       </c>
       <c r="W26" t="n">
-        <v>24.49789456070173</v>
+        <v>74.15524751219775</v>
       </c>
       <c r="X26" t="n">
-        <v>50.7482277373965</v>
+        <v>79.77553231608145</v>
       </c>
       <c r="Y26" t="n">
-        <v>85.39170764724238</v>
+        <v>192.4473722437153</v>
       </c>
       <c r="Z26" t="n">
-        <v>60.60030424285671</v>
+        <v>42.36833784060002</v>
       </c>
       <c r="AA26" t="n">
-        <v>56.75784958481955</v>
+        <v>44.75652847720524</v>
       </c>
       <c r="AB26" t="n">
-        <v>110.8821667237366</v>
+        <v>119.4617660464392</v>
       </c>
       <c r="AC26" t="n">
-        <v>65.71814863254789</v>
+        <v>55.71853216465776</v>
       </c>
       <c r="AD26" t="n">
-        <v>95.99989348177746</v>
+        <v>105.8380539377854</v>
       </c>
       <c r="AE26" t="n">
-        <v>75.99505533751383</v>
+        <v>91.01761956351645</v>
       </c>
       <c r="AF26" t="n">
-        <v>91.31439310199403</v>
+        <v>88.7006632885235</v>
       </c>
       <c r="AG26" t="n">
-        <v>116.2704223465993</v>
+        <v>147.2219239397374</v>
       </c>
       <c r="AH26" t="n">
-        <v>49.46068768627257</v>
+        <v>193.2383952731623</v>
       </c>
       <c r="AI26" t="n">
-        <v>94.87872982243893</v>
+        <v>106.2352483343327</v>
       </c>
       <c r="AJ26" t="n">
-        <v>130.4627943587509</v>
+        <v>162.7523587437415</v>
       </c>
       <c r="AK26" t="n">
-        <v>136.4515246308318</v>
+        <v>91.54342427133273</v>
       </c>
       <c r="AL26" t="n">
-        <v>56.24817442919682</v>
+        <v>50.05538464783497</v>
       </c>
       <c r="AM26" t="n">
-        <v>35.67525068438118</v>
+        <v>36.94902025134088</v>
       </c>
       <c r="AN26" t="n">
-        <v>38.97304367307287</v>
+        <v>59.51803778359167</v>
       </c>
       <c r="AO26" t="n">
-        <v>54.98400878995306</v>
+        <v>26.90893067484667</v>
       </c>
       <c r="AP26" t="n">
-        <v>11.83041941846452</v>
+        <v>25.88951929047895</v>
       </c>
       <c r="AQ26" t="n">
-        <v>15.52293901667324</v>
+        <v>18.6537976218555</v>
       </c>
       <c r="AR26" t="n">
-        <v>14.70087155099608</v>
+        <v>22.29937412074374</v>
       </c>
       <c r="AS26" t="n">
-        <v>23.68669267350998</v>
+        <v>20.39892173692368</v>
       </c>
       <c r="AT26" t="n">
-        <v>9.993669378537728</v>
+        <v>20.97123713855813</v>
       </c>
       <c r="AU26" t="n">
-        <v>21.92384328310089</v>
+        <v>15.39580215215287</v>
       </c>
       <c r="AV26" t="n">
-        <v>9.862051899455343</v>
+        <v>21.83385042315075</v>
       </c>
       <c r="AW26" t="n">
-        <v>25.07311583121897</v>
+        <v>16.94775163400632</v>
       </c>
       <c r="AX26" t="n">
-        <v>20.00278211320783</v>
+        <v>17.08510021633037</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>1.102701417116373</v>
+        <v>3.969978288357205</v>
       </c>
       <c r="D27" t="n">
-        <v>3.283172229106511</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>8.609644344568833</v>
+        <v>1.023628485276927</v>
       </c>
       <c r="F27" t="n">
-        <v>7.589712788094101</v>
+        <v>2.84174520942947</v>
       </c>
       <c r="G27" t="n">
-        <v>4.777836699635711</v>
+        <v>3.443445990045075</v>
       </c>
       <c r="H27" t="n">
-        <v>1.427888645511429</v>
+        <v>2.482545313907691</v>
       </c>
       <c r="I27" t="n">
-        <v>3.218357534174523</v>
+        <v>3.920881029312659</v>
       </c>
       <c r="J27" t="n">
-        <v>15.6679125260325</v>
+        <v>5.831362610225643</v>
       </c>
       <c r="K27" t="n">
-        <v>4.041939298594926</v>
+        <v>5.287703768906796</v>
       </c>
       <c r="L27" t="n">
-        <v>2.659325470644037</v>
+        <v>14.02234144573604</v>
       </c>
       <c r="M27" t="n">
-        <v>7.524574089800884</v>
+        <v>6.808231159197483</v>
       </c>
       <c r="N27" t="n">
-        <v>3.147866010330226</v>
+        <v>8.065904441325339</v>
       </c>
       <c r="O27" t="n">
-        <v>5.034213941952759</v>
+        <v>1.615803936152639</v>
       </c>
       <c r="P27" t="n">
-        <v>3.219999328893378</v>
+        <v>2.401462536691313</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.695449176252998</v>
+        <v>11.84964777359835</v>
       </c>
       <c r="R27" t="n">
-        <v>5.939654000362266</v>
+        <v>4.171880407273616</v>
       </c>
       <c r="S27" t="n">
-        <v>1.606789195293729</v>
+        <v>10.13777243605095</v>
       </c>
       <c r="T27" t="n">
-        <v>7.269233143314658</v>
+        <v>6.617655835473681</v>
       </c>
       <c r="U27" t="n">
-        <v>1.406616656915343</v>
+        <v>4.715686805667083</v>
       </c>
       <c r="V27" t="n">
-        <v>3.194864249880849</v>
+        <v>4.906436156778596</v>
       </c>
       <c r="W27" t="n">
-        <v>3.579471141179303</v>
+        <v>5.236026810543406</v>
       </c>
       <c r="X27" t="n">
-        <v>7.555385191194252</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.460376629893284</v>
+        <v>6.88251238555647</v>
       </c>
       <c r="Z27" t="n">
-        <v>5.303676717728099</v>
+        <v>4.251080256534062</v>
       </c>
       <c r="AA27" t="n">
-        <v>5.96680841694709</v>
+        <v>4.865454726028069</v>
       </c>
       <c r="AB27" t="n">
-        <v>7.058881898403806</v>
+        <v>7.548617814508988</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.68239586059447</v>
+        <v>4.831498659728621</v>
       </c>
       <c r="AD27" t="n">
-        <v>5.570232086166831</v>
+        <v>7.352842592491518</v>
       </c>
       <c r="AE27" t="n">
-        <v>6.493583051054429</v>
+        <v>5.684837905626704</v>
       </c>
       <c r="AF27" t="n">
-        <v>4.981121971666928</v>
+        <v>6.377106395966757</v>
       </c>
       <c r="AG27" t="n">
-        <v>5.657699125984405</v>
+        <v>3.136492811928165</v>
       </c>
       <c r="AH27" t="n">
-        <v>2.826921503846603</v>
+        <v>5.860854913039002</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.5784119095886002</v>
+        <v>5.23868896503421</v>
       </c>
       <c r="AJ27" t="n">
-        <v>6.546018282551933</v>
+        <v>6.311241906837333</v>
       </c>
       <c r="AK27" t="n">
-        <v>4.196258885170766</v>
+        <v>6.79184167718935</v>
       </c>
       <c r="AL27" t="n">
-        <v>3.286038142069109</v>
+        <v>3.711773535852939</v>
       </c>
       <c r="AM27" t="n">
-        <v>4.810601544507744</v>
+        <v>3.533515474166855</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.251589534477819</v>
+        <v>8.043999973710461</v>
       </c>
       <c r="AO27" t="n">
-        <v>6.245975391922794</v>
+        <v>2.796886261385993</v>
       </c>
       <c r="AP27" t="n">
-        <v>5.967099039921778</v>
+        <v>2.511997090011486</v>
       </c>
       <c r="AQ27" t="n">
-        <v>5.709680508624627</v>
+        <v>4.557134835193726</v>
       </c>
       <c r="AR27" t="n">
-        <v>2.384207114066915</v>
+        <v>9.844620374471255</v>
       </c>
       <c r="AS27" t="n">
-        <v>4.39132169333425</v>
+        <v>1.205730999255638</v>
       </c>
       <c r="AT27" t="n">
-        <v>5.193046804342568</v>
+        <v>4.079810618717141</v>
       </c>
       <c r="AU27" t="n">
-        <v>8.206236551540703</v>
+        <v>4.852164178874062</v>
       </c>
       <c r="AV27" t="n">
-        <v>2.517108626594549</v>
+        <v>2.425779917312824</v>
       </c>
       <c r="AW27" t="n">
-        <v>1.707646003600062</v>
+        <v>3.456031216293718</v>
       </c>
       <c r="AX27" t="n">
-        <v>0.3757602657220946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>6.883933493027832</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>22.87236662568456</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>8.361058517272683</v>
+        <v>17.37382605915296</v>
       </c>
       <c r="F28" t="n">
-        <v>13.38975220529445</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>4.82495402303541</v>
+        <v>25.37600119048495</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>15.60457482669956</v>
       </c>
       <c r="I28" t="n">
-        <v>2.091803045152377</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>4.332429856832318</v>
+        <v>8.09280803187637</v>
       </c>
       <c r="K28" t="n">
-        <v>160.8131376039217</v>
+        <v>94.63108129803855</v>
       </c>
       <c r="L28" t="n">
-        <v>25.6833751912923</v>
+        <v>41.29078323747255</v>
       </c>
       <c r="M28" t="n">
-        <v>36.1132286249383</v>
+        <v>101.9249092121937</v>
       </c>
       <c r="N28" t="n">
-        <v>115.7000837773077</v>
+        <v>33.89163820156217</v>
       </c>
       <c r="O28" t="n">
-        <v>55.79903482216687</v>
+        <v>99.21493915764415</v>
       </c>
       <c r="P28" t="n">
-        <v>27.20478180738291</v>
+        <v>27.75478053997505</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.88228595045027</v>
+        <v>0.6854232783553087</v>
       </c>
       <c r="R28" t="n">
-        <v>46.86716826464504</v>
+        <v>68.3835310500298</v>
       </c>
       <c r="S28" t="n">
-        <v>50.79641373326216</v>
+        <v>32.97164307482174</v>
       </c>
       <c r="T28" t="n">
-        <v>30.00468748096363</v>
+        <v>45.4009963465276</v>
       </c>
       <c r="U28" t="n">
-        <v>48.16228405733121</v>
+        <v>158.5398765645108</v>
       </c>
       <c r="V28" t="n">
-        <v>110.3655491399801</v>
+        <v>84.01555811683721</v>
       </c>
       <c r="W28" t="n">
-        <v>65.59541457940034</v>
+        <v>53.72329050838838</v>
       </c>
       <c r="X28" t="n">
-        <v>98.05108493561634</v>
+        <v>60.31592677389766</v>
       </c>
       <c r="Y28" t="n">
-        <v>104.7151862141284</v>
+        <v>141.6575460300607</v>
       </c>
       <c r="Z28" t="n">
-        <v>76.37557976374242</v>
+        <v>72.21669150235505</v>
       </c>
       <c r="AA28" t="n">
-        <v>64.71551007743359</v>
+        <v>50.1565818686723</v>
       </c>
       <c r="AB28" t="n">
-        <v>75.94693871841984</v>
+        <v>49.52715523665408</v>
       </c>
       <c r="AC28" t="n">
-        <v>99.37448979549396</v>
+        <v>97.46130784647289</v>
       </c>
       <c r="AD28" t="n">
-        <v>103.0035353171543</v>
+        <v>74.50637385248966</v>
       </c>
       <c r="AE28" t="n">
-        <v>91.0581393022257</v>
+        <v>98.21574223199364</v>
       </c>
       <c r="AF28" t="n">
-        <v>83.60022572891343</v>
+        <v>56.73501713477213</v>
       </c>
       <c r="AG28" t="n">
-        <v>40.96010157892729</v>
+        <v>38.8101875791841</v>
       </c>
       <c r="AH28" t="n">
-        <v>50.33567089730037</v>
+        <v>27.67884673962651</v>
       </c>
       <c r="AI28" t="n">
-        <v>47.08808034994638</v>
+        <v>27.12750778207389</v>
       </c>
       <c r="AJ28" t="n">
-        <v>59.50238506832001</v>
+        <v>32.57737929454107</v>
       </c>
       <c r="AK28" t="n">
-        <v>63.26152024240955</v>
+        <v>29.8606230952394</v>
       </c>
       <c r="AL28" t="n">
-        <v>26.11564196127847</v>
+        <v>52.28051747394809</v>
       </c>
       <c r="AM28" t="n">
-        <v>15.24926670141736</v>
+        <v>30.60342463312811</v>
       </c>
       <c r="AN28" t="n">
-        <v>15.21914295599097</v>
+        <v>28.73806948336934</v>
       </c>
       <c r="AO28" t="n">
-        <v>13.90951056805558</v>
+        <v>12.78515609897427</v>
       </c>
       <c r="AP28" t="n">
-        <v>18.23654132255064</v>
+        <v>16.88797228097419</v>
       </c>
       <c r="AQ28" t="n">
-        <v>14.96582536679291</v>
+        <v>15.01481702069417</v>
       </c>
       <c r="AR28" t="n">
-        <v>27.05214412717173</v>
+        <v>7.771536546724845</v>
       </c>
       <c r="AS28" t="n">
-        <v>24.01714400940453</v>
+        <v>13.9183584441089</v>
       </c>
       <c r="AT28" t="n">
-        <v>6.493518730325738</v>
+        <v>11.67783818609733</v>
       </c>
       <c r="AU28" t="n">
-        <v>26.15785061236101</v>
+        <v>10.13685376748427</v>
       </c>
       <c r="AV28" t="n">
-        <v>4.919848071574688</v>
+        <v>10.20443709969349</v>
       </c>
       <c r="AW28" t="n">
-        <v>7.20794116939643</v>
+        <v>8.130310836895204</v>
       </c>
       <c r="AX28" t="n">
-        <v>17.26962035448792</v>
+        <v>13.10566454505235</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>22.16829113871771</v>
+        <v>2.453106379985983</v>
       </c>
       <c r="D29" t="n">
-        <v>25.66096708081809</v>
+        <v>26.22954822441372</v>
       </c>
       <c r="E29" t="n">
-        <v>27.70273835484579</v>
+        <v>22.54151104850561</v>
       </c>
       <c r="F29" t="n">
-        <v>4.572601115673068</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>19.87443786377303</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>31.91239624343711</v>
+        <v>8.124758736401251</v>
       </c>
       <c r="I29" t="n">
-        <v>26.31160234009607</v>
+        <v>28.55826069984006</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>37.85884162952338</v>
       </c>
       <c r="K29" t="n">
-        <v>22.49525979125162</v>
+        <v>98.64387837262237</v>
       </c>
       <c r="L29" t="n">
-        <v>43.36538700579506</v>
+        <v>39.70652838946975</v>
       </c>
       <c r="M29" t="n">
-        <v>78.17459232493671</v>
+        <v>22.32528037900561</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>33.55227840572876</v>
       </c>
       <c r="O29" t="n">
-        <v>43.87098728672564</v>
+        <v>191.8184059831851</v>
       </c>
       <c r="P29" t="n">
-        <v>26.89231282516452</v>
+        <v>94.73865896061382</v>
       </c>
       <c r="Q29" t="n">
-        <v>34.83025154781262</v>
+        <v>19.32909861548664</v>
       </c>
       <c r="R29" t="n">
-        <v>21.77710091024387</v>
+        <v>23.54085074331519</v>
       </c>
       <c r="S29" t="n">
-        <v>24.19418670597949</v>
+        <v>43.1020791124243</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>9.259533417047795</v>
       </c>
       <c r="U29" t="n">
-        <v>177.1257052195275</v>
+        <v>108.2506934219625</v>
       </c>
       <c r="V29" t="n">
-        <v>25.61176965981773</v>
+        <v>192.301289861459</v>
       </c>
       <c r="W29" t="n">
-        <v>45.14752477661734</v>
+        <v>45.75909681178173</v>
       </c>
       <c r="X29" t="n">
-        <v>120.7355457556047</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>0.8201900585837822</v>
       </c>
       <c r="Z29" t="n">
-        <v>30.71565984649141</v>
+        <v>21.17643586947187</v>
       </c>
       <c r="AA29" t="n">
-        <v>64.53265774227127</v>
+        <v>28.5101581210626</v>
       </c>
       <c r="AB29" t="n">
-        <v>37.37174386814783</v>
+        <v>1.815272216898039</v>
       </c>
       <c r="AC29" t="n">
-        <v>28.65597886601711</v>
+        <v>53.87671982669174</v>
       </c>
       <c r="AD29" t="n">
-        <v>11.7564137212737</v>
+        <v>38.93932230198422</v>
       </c>
       <c r="AE29" t="n">
-        <v>54.93813019518521</v>
+        <v>35.40150355074534</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.9620631925690422</v>
+        <v>43.64196951588114</v>
       </c>
       <c r="AG29" t="n">
-        <v>41.71558530323935</v>
+        <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>22.97937563228406</v>
+        <v>82.55093246946686</v>
       </c>
       <c r="AI29" t="n">
-        <v>25.52225512447701</v>
+        <v>22.62552463019444</v>
       </c>
       <c r="AJ29" t="n">
-        <v>100.1653860923959</v>
+        <v>125.1716342103816</v>
       </c>
       <c r="AK29" t="n">
-        <v>72.11832549195523</v>
+        <v>64.27760509021451</v>
       </c>
       <c r="AL29" t="n">
-        <v>6.218601329703599</v>
+        <v>18.56840963724327</v>
       </c>
       <c r="AM29" t="n">
-        <v>17.05044112780461</v>
+        <v>0</v>
       </c>
       <c r="AN29" t="n">
-        <v>24.89119492754069</v>
+        <v>17.71398949501712</v>
       </c>
       <c r="AO29" t="n">
-        <v>24.73326984849327</v>
+        <v>0.8065816441729874</v>
       </c>
       <c r="AP29" t="n">
-        <v>4.316243279339254</v>
+        <v>34.29899361715036</v>
       </c>
       <c r="AQ29" t="n">
-        <v>36.9631799641088</v>
+        <v>19.66858272199208</v>
       </c>
       <c r="AR29" t="n">
-        <v>46.31236688708636</v>
+        <v>20.92188638740005</v>
       </c>
       <c r="AS29" t="n">
-        <v>24.26915723930062</v>
+        <v>2.616758148801013</v>
       </c>
       <c r="AT29" t="n">
-        <v>7.898334447391527</v>
+        <v>38.4521485408635</v>
       </c>
       <c r="AU29" t="n">
-        <v>41.70408347126047</v>
+        <v>45.23944653458071</v>
       </c>
       <c r="AV29" t="n">
-        <v>12.28062596075907</v>
+        <v>7.976661822480988</v>
       </c>
       <c r="AW29" t="n">
-        <v>25.3615554099498</v>
+        <v>9.539480644888258</v>
       </c>
       <c r="AX29" t="n">
-        <v>17.07069078209046</v>
+        <v>27.97111571450726</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>1.89690021094713</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>4.57499322403299</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>3.529618941671113</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>6.106515273408498</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>5.361649025853467</v>
+        <v>4.833432369254433</v>
       </c>
       <c r="H30" t="n">
-        <v>9.26016670259008</v>
+        <v>4.12214947559524</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2.240245493370506</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>27.8088709734619</v>
       </c>
       <c r="K30" t="n">
-        <v>28.5438997070188</v>
+        <v>36.6913857420186</v>
       </c>
       <c r="L30" t="n">
-        <v>17.11472850530989</v>
+        <v>11.10391688774973</v>
       </c>
       <c r="M30" t="n">
-        <v>8.477389735511199</v>
+        <v>7.711100768185164</v>
       </c>
       <c r="N30" t="n">
-        <v>2.297765813263087</v>
+        <v>52.37430939475634</v>
       </c>
       <c r="O30" t="n">
-        <v>8.477471893788524</v>
+        <v>4.828646597325924</v>
       </c>
       <c r="P30" t="n">
-        <v>44.61086821765604</v>
+        <v>21.24495673124226</v>
       </c>
       <c r="Q30" t="n">
-        <v>17.59857065693796</v>
+        <v>5.047927237315056</v>
       </c>
       <c r="R30" t="n">
-        <v>47.72576855736272</v>
+        <v>17.2010645238779</v>
       </c>
       <c r="S30" t="n">
-        <v>4.948103359887209</v>
+        <v>18.61780179719506</v>
       </c>
       <c r="T30" t="n">
-        <v>34.6237692248726</v>
+        <v>33.72461158789173</v>
       </c>
       <c r="U30" t="n">
-        <v>8.562770699607675</v>
+        <v>10.78014511507421</v>
       </c>
       <c r="V30" t="n">
-        <v>24.64334753618924</v>
+        <v>20.57760794869752</v>
       </c>
       <c r="W30" t="n">
-        <v>18.31097937608148</v>
+        <v>31.13612186763252</v>
       </c>
       <c r="X30" t="n">
-        <v>19.96319896123297</v>
+        <v>44.83491093997888</v>
       </c>
       <c r="Y30" t="n">
-        <v>36.4490190480433</v>
+        <v>19.14747185304186</v>
       </c>
       <c r="Z30" t="n">
-        <v>23.65791645955403</v>
+        <v>13.77583524732256</v>
       </c>
       <c r="AA30" t="n">
-        <v>14.13579594529269</v>
+        <v>8.633705385921768</v>
       </c>
       <c r="AB30" t="n">
-        <v>17.20181356451281</v>
+        <v>18.68710528700222</v>
       </c>
       <c r="AC30" t="n">
-        <v>21.43222421793138</v>
+        <v>15.86721933152639</v>
       </c>
       <c r="AD30" t="n">
-        <v>13.75385216936771</v>
+        <v>8.768709420447411</v>
       </c>
       <c r="AE30" t="n">
-        <v>13.86375321180294</v>
+        <v>11.12293102988284</v>
       </c>
       <c r="AF30" t="n">
-        <v>17.6616209322295</v>
+        <v>20.45453789829582</v>
       </c>
       <c r="AG30" t="n">
-        <v>12.08372906896216</v>
+        <v>10.11593157032762</v>
       </c>
       <c r="AH30" t="n">
-        <v>5.571702476216235</v>
+        <v>12.59595979140465</v>
       </c>
       <c r="AI30" t="n">
-        <v>11.30873489204633</v>
+        <v>9.684859107022314</v>
       </c>
       <c r="AJ30" t="n">
-        <v>9.270280464355638</v>
+        <v>6.683136048627241</v>
       </c>
       <c r="AK30" t="n">
-        <v>7.12561224830715</v>
+        <v>3.567072274345498</v>
       </c>
       <c r="AL30" t="n">
-        <v>3.039158153570335</v>
+        <v>7.575673729085879</v>
       </c>
       <c r="AM30" t="n">
-        <v>4.318739293348901</v>
+        <v>4.804212911586752</v>
       </c>
       <c r="AN30" t="n">
-        <v>5.38394405985963</v>
+        <v>6.12320548798001</v>
       </c>
       <c r="AO30" t="n">
-        <v>3.999514809908569</v>
+        <v>0.7654866049653812</v>
       </c>
       <c r="AP30" t="n">
-        <v>3.955850292367085</v>
+        <v>2.070364520389257</v>
       </c>
       <c r="AQ30" t="n">
-        <v>4.060745322183521</v>
+        <v>0.7513252530440696</v>
       </c>
       <c r="AR30" t="n">
-        <v>2.475623944692734</v>
+        <v>5.656980732830906</v>
       </c>
       <c r="AS30" t="n">
-        <v>4.624437787827993</v>
+        <v>1.79782135998266</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.736016405959888</v>
+        <v>5.066566254857368</v>
       </c>
       <c r="AU30" t="n">
-        <v>5.203792176429495</v>
+        <v>3.829790789845753</v>
       </c>
       <c r="AV30" t="n">
-        <v>1.15615523383705</v>
+        <v>0.8143927613704705</v>
       </c>
       <c r="AW30" t="n">
-        <v>4.42335860516275</v>
+        <v>4.508747430102698</v>
       </c>
       <c r="AX30" t="n">
-        <v>2.509517003400573</v>
+        <v>2.291654885151048</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>24.44575083339805</v>
+        <v>16.97229954693643</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>3.890155814617067</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.462850770979746</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>33.25772519205542</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>8.11852263658319</v>
+        <v>19.57965148425138</v>
       </c>
       <c r="I31" t="n">
-        <v>40.34544133986192</v>
+        <v>35.60376541542534</v>
       </c>
       <c r="J31" t="n">
-        <v>29.48485231237963</v>
+        <v>128.6074451684635</v>
       </c>
       <c r="K31" t="n">
-        <v>29.59761727469976</v>
+        <v>72.27055280225632</v>
       </c>
       <c r="L31" t="n">
-        <v>4.991451974965344</v>
+        <v>98.38634990953857</v>
       </c>
       <c r="M31" t="n">
-        <v>42.02816242004815</v>
+        <v>66.74466974910928</v>
       </c>
       <c r="N31" t="n">
-        <v>68.25561188130838</v>
+        <v>296.8756477196009</v>
       </c>
       <c r="O31" t="n">
-        <v>97.48077516639862</v>
+        <v>106.4331973491846</v>
       </c>
       <c r="P31" t="n">
-        <v>17.36655137804868</v>
+        <v>47.54445646221701</v>
       </c>
       <c r="Q31" t="n">
-        <v>14.9537666139227</v>
+        <v>29.8123891960974</v>
       </c>
       <c r="R31" t="n">
-        <v>0.3386974570390962</v>
+        <v>26.13338078621226</v>
       </c>
       <c r="S31" t="n">
-        <v>33.79303644776821</v>
+        <v>2.838328582474092</v>
       </c>
       <c r="T31" t="n">
-        <v>33.34074223502315</v>
+        <v>13.1424103116346</v>
       </c>
       <c r="U31" t="n">
-        <v>8.316281313199394</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>35.13812707198865</v>
+        <v>3.43137177472191</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.399778581001559</v>
       </c>
       <c r="X31" t="n">
-        <v>0.409850771057509</v>
+        <v>6.230778507832176</v>
       </c>
       <c r="Y31" t="n">
-        <v>57.4304761635861</v>
+        <v>26.44620225753259</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.71319219449818</v>
+        <v>33.25053806942809</v>
       </c>
       <c r="AA31" t="n">
-        <v>2.603956489999628</v>
+        <v>12.65048940082095</v>
       </c>
       <c r="AB31" t="n">
-        <v>15.27094798028082</v>
+        <v>8.729992773244453</v>
       </c>
       <c r="AC31" t="n">
-        <v>6.06408135124377</v>
+        <v>23.72768279619394</v>
       </c>
       <c r="AD31" t="n">
-        <v>14.91178650479394</v>
+        <v>16.15710051515447</v>
       </c>
       <c r="AE31" t="n">
-        <v>21.37586834247602</v>
+        <v>3.663611741766043</v>
       </c>
       <c r="AF31" t="n">
-        <v>2.832353159229742</v>
+        <v>10.08671051021182</v>
       </c>
       <c r="AG31" t="n">
-        <v>10.65412383650313</v>
+        <v>1.13175846024406</v>
       </c>
       <c r="AH31" t="n">
-        <v>1.700740439357322</v>
+        <v>0.9169034091429649</v>
       </c>
       <c r="AI31" t="n">
-        <v>10.49747092737667</v>
+        <v>13.91810774445337</v>
       </c>
       <c r="AJ31" t="n">
-        <v>4.343045227819733</v>
+        <v>3.145202925484928</v>
       </c>
       <c r="AK31" t="n">
-        <v>0.07463893962775847</v>
+        <v>8.284876679643968</v>
       </c>
       <c r="AL31" t="n">
-        <v>43.02362853391311</v>
+        <v>0</v>
       </c>
       <c r="AM31" t="n">
-        <v>1.192864671591003</v>
+        <v>7.066566446259952</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>2.465214520152704</v>
       </c>
       <c r="AO31" t="n">
-        <v>5.318620699095616</v>
+        <v>6.87639324232252</v>
       </c>
       <c r="AP31" t="n">
-        <v>21.3974545093688</v>
+        <v>2.776169893256108</v>
       </c>
       <c r="AQ31" t="n">
         <v>0</v>
       </c>
       <c r="AR31" t="n">
-        <v>0</v>
+        <v>5.690594147085578</v>
       </c>
       <c r="AS31" t="n">
-        <v>7.871453308008074</v>
+        <v>3.595654084413663</v>
       </c>
       <c r="AT31" t="n">
-        <v>5.549784328164989</v>
+        <v>26.85832225017745</v>
       </c>
       <c r="AU31" t="n">
-        <v>4.041050602751723</v>
+        <v>0.1993466863910363</v>
       </c>
       <c r="AV31" t="n">
-        <v>13.6164769971573</v>
+        <v>3.220268597815315</v>
       </c>
       <c r="AW31" t="n">
-        <v>18.03014218181234</v>
+        <v>0.5960722847816893</v>
       </c>
       <c r="AX31" t="n">
-        <v>10.59543415190538</v>
+        <v>7.446448465901581</v>
       </c>
     </row>
   </sheetData>
